--- a/番剧数据-原始数据【国产动画-更早年】.xlsx
+++ b/番剧数据-原始数据【国产动画-更早年】.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9060"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3831,7 +3831,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3842,13 +3842,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4316,28 +4309,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4346,118 +4342,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4817,11 +4810,11 @@
   <sheetPr/>
   <dimension ref="A1:K528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A412" sqref="A412:A528"/>
+    <sheetView tabSelected="1" topLeftCell="A514" workbookViewId="0">
+      <selection activeCell="J537" sqref="J537"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1">
@@ -4856,7 +4849,9 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>2015</v>
+      </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
@@ -4889,7 +4884,9 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2015</v>
+      </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -4922,7 +4919,9 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>2015</v>
+      </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -4955,7 +4954,9 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>2015</v>
+      </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -4988,7 +4989,9 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>2015</v>
+      </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -5021,7 +5024,9 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -5054,7 +5059,9 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>2015</v>
+      </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -5087,7 +5094,9 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>2015</v>
+      </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -5120,7 +5129,9 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>2015</v>
+      </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -5153,7 +5164,9 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>2015</v>
+      </c>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -5186,7 +5199,9 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>2015</v>
+      </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -5219,7 +5234,9 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>2015</v>
+      </c>
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -5252,7 +5269,9 @@
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>2015</v>
+      </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -5285,7 +5304,9 @@
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>2015</v>
+      </c>
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -5318,7 +5339,9 @@
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>2015</v>
+      </c>
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -5351,7 +5374,9 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>2015</v>
+      </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -5384,7 +5409,9 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>2015</v>
+      </c>
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -5417,7 +5444,9 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>2015</v>
+      </c>
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -5450,7 +5479,9 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>2015</v>
+      </c>
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -5483,7 +5514,9 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>2015</v>
+      </c>
       <c r="B21" s="2">
         <v>19</v>
       </c>
@@ -5516,7 +5549,9 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>2015</v>
+      </c>
       <c r="B22" s="2">
         <v>20</v>
       </c>
@@ -5549,7 +5584,9 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>2015</v>
+      </c>
       <c r="B23" s="2">
         <v>21</v>
       </c>
@@ -5582,7 +5619,9 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>2015</v>
+      </c>
       <c r="B24" s="2">
         <v>22</v>
       </c>
@@ -5615,7 +5654,9 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>2015</v>
+      </c>
       <c r="B25" s="2">
         <v>23</v>
       </c>
@@ -5648,7 +5689,9 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>2015</v>
+      </c>
       <c r="B26" s="2">
         <v>24</v>
       </c>
@@ -5681,7 +5724,9 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>2015</v>
+      </c>
       <c r="B27" s="2">
         <v>25</v>
       </c>
@@ -5714,7 +5759,9 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>2015</v>
+      </c>
       <c r="B28" s="2">
         <v>26</v>
       </c>
@@ -5747,7 +5794,9 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>2015</v>
+      </c>
       <c r="B29" s="2">
         <v>27</v>
       </c>
@@ -5780,7 +5829,9 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>2015</v>
+      </c>
       <c r="B30" s="2">
         <v>28</v>
       </c>
@@ -5813,7 +5864,9 @@
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>2015</v>
+      </c>
       <c r="B31" s="2">
         <v>29</v>
       </c>
@@ -5846,7 +5899,9 @@
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>2015</v>
+      </c>
       <c r="B32" s="2">
         <v>30</v>
       </c>
@@ -5879,7 +5934,9 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>2015</v>
+      </c>
       <c r="B33" s="2">
         <v>31</v>
       </c>
@@ -5947,7 +6004,9 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>2016</v>
+      </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
@@ -5980,7 +6039,9 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>2016</v>
+      </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
@@ -6013,7 +6074,9 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>2016</v>
+      </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
@@ -6046,7 +6109,9 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>2016</v>
+      </c>
       <c r="B38" s="2">
         <v>4</v>
       </c>
@@ -6079,7 +6144,9 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>2016</v>
+      </c>
       <c r="B39" s="2">
         <v>5</v>
       </c>
@@ -6112,7 +6179,9 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>2016</v>
+      </c>
       <c r="B40" s="2">
         <v>6</v>
       </c>
@@ -6145,7 +6214,9 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>2016</v>
+      </c>
       <c r="B41" s="2">
         <v>7</v>
       </c>
@@ -6178,7 +6249,9 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>2016</v>
+      </c>
       <c r="B42" s="2">
         <v>8</v>
       </c>
@@ -6211,7 +6284,9 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>2016</v>
+      </c>
       <c r="B43" s="2">
         <v>9</v>
       </c>
@@ -6244,7 +6319,9 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>2016</v>
+      </c>
       <c r="B44" s="2">
         <v>10</v>
       </c>
@@ -6277,7 +6354,9 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>2016</v>
+      </c>
       <c r="B45" s="2">
         <v>11</v>
       </c>
@@ -6310,7 +6389,9 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>2016</v>
+      </c>
       <c r="B46" s="2">
         <v>12</v>
       </c>
@@ -6343,7 +6424,9 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>2016</v>
+      </c>
       <c r="B47" s="2">
         <v>13</v>
       </c>
@@ -6376,7 +6459,9 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>2016</v>
+      </c>
       <c r="B48" s="2">
         <v>14</v>
       </c>
@@ -6409,7 +6494,9 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>2016</v>
+      </c>
       <c r="B49" s="2">
         <v>15</v>
       </c>
@@ -6442,7 +6529,9 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>2016</v>
+      </c>
       <c r="B50" s="2">
         <v>16</v>
       </c>
@@ -6475,7 +6564,9 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1">
+        <v>2016</v>
+      </c>
       <c r="B51" s="2">
         <v>17</v>
       </c>
@@ -6508,7 +6599,9 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1">
+        <v>2016</v>
+      </c>
       <c r="B52" s="2">
         <v>18</v>
       </c>
@@ -6541,7 +6634,9 @@
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="1"/>
+      <c r="A53" s="1">
+        <v>2016</v>
+      </c>
       <c r="B53" s="2">
         <v>19</v>
       </c>
@@ -6574,7 +6669,9 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1">
+        <v>2016</v>
+      </c>
       <c r="B54" s="2">
         <v>20</v>
       </c>
@@ -6607,7 +6704,9 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1">
+        <v>2016</v>
+      </c>
       <c r="B55" s="2">
         <v>21</v>
       </c>
@@ -6640,7 +6739,9 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1">
+        <v>2016</v>
+      </c>
       <c r="B56" s="2">
         <v>22</v>
       </c>
@@ -6673,7 +6774,9 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1">
+        <v>2016</v>
+      </c>
       <c r="B57" s="2">
         <v>23</v>
       </c>
@@ -6706,7 +6809,9 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1">
+        <v>2016</v>
+      </c>
       <c r="B58" s="2">
         <v>24</v>
       </c>
@@ -6739,7 +6844,9 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1">
+        <v>2016</v>
+      </c>
       <c r="B59" s="2">
         <v>25</v>
       </c>
@@ -6772,7 +6879,9 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>2016</v>
+      </c>
       <c r="B60" s="2">
         <v>26</v>
       </c>
@@ -6805,7 +6914,9 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>2016</v>
+      </c>
       <c r="B61" s="2">
         <v>27</v>
       </c>
@@ -6838,7 +6949,9 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>2016</v>
+      </c>
       <c r="B62" s="2">
         <v>28</v>
       </c>
@@ -6871,7 +6984,9 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>2016</v>
+      </c>
       <c r="B63" s="2">
         <v>29</v>
       </c>
@@ -6904,7 +7019,9 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>2016</v>
+      </c>
       <c r="B64" s="2">
         <v>30</v>
       </c>
@@ -6937,7 +7054,9 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
+      <c r="A65" s="1">
+        <v>2016</v>
+      </c>
       <c r="B65" s="2">
         <v>31</v>
       </c>
@@ -6970,7 +7089,9 @@
       </c>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="1"/>
+      <c r="A66" s="1">
+        <v>2016</v>
+      </c>
       <c r="B66" s="2">
         <v>32</v>
       </c>
@@ -7003,7 +7124,9 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1">
+        <v>2016</v>
+      </c>
       <c r="B67" s="2">
         <v>33</v>
       </c>
@@ -7036,7 +7159,9 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
+      <c r="A68" s="1">
+        <v>2016</v>
+      </c>
       <c r="B68" s="2">
         <v>34</v>
       </c>
@@ -7069,7 +7194,9 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1">
+        <v>2016</v>
+      </c>
       <c r="B69" s="2">
         <v>35</v>
       </c>
@@ -7102,7 +7229,9 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1">
+        <v>2016</v>
+      </c>
       <c r="B70" s="2">
         <v>36</v>
       </c>
@@ -7135,7 +7264,9 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1">
+        <v>2016</v>
+      </c>
       <c r="B71" s="2">
         <v>37</v>
       </c>
@@ -7168,7 +7299,9 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="1"/>
+      <c r="A72" s="1">
+        <v>2016</v>
+      </c>
       <c r="B72" s="2">
         <v>38</v>
       </c>
@@ -7201,7 +7334,9 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="1"/>
+      <c r="A73" s="1">
+        <v>2016</v>
+      </c>
       <c r="B73" s="2">
         <v>39</v>
       </c>
@@ -7234,7 +7369,9 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="1"/>
+      <c r="A74" s="1">
+        <v>2016</v>
+      </c>
       <c r="B74" s="2">
         <v>40</v>
       </c>
@@ -7267,7 +7404,9 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="1"/>
+      <c r="A75" s="1">
+        <v>2016</v>
+      </c>
       <c r="B75" s="2">
         <v>41</v>
       </c>
@@ -7300,7 +7439,9 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="1"/>
+      <c r="A76" s="1">
+        <v>2016</v>
+      </c>
       <c r="B76" s="2">
         <v>42</v>
       </c>
@@ -7333,7 +7474,9 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1">
+        <v>2016</v>
+      </c>
       <c r="B77" s="2">
         <v>43</v>
       </c>
@@ -7366,7 +7509,9 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="1"/>
+      <c r="A78" s="1">
+        <v>2016</v>
+      </c>
       <c r="B78" s="2">
         <v>44</v>
       </c>
@@ -7399,7 +7544,9 @@
       </c>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1">
+        <v>2016</v>
+      </c>
       <c r="B79" s="2">
         <v>45</v>
       </c>
@@ -7432,7 +7579,9 @@
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1">
+        <v>2016</v>
+      </c>
       <c r="B80" s="2">
         <v>46</v>
       </c>
@@ -7465,7 +7614,9 @@
       </c>
     </row>
     <row r="81" spans="1:11">
-      <c r="A81" s="1"/>
+      <c r="A81" s="1">
+        <v>2016</v>
+      </c>
       <c r="B81" s="2">
         <v>47</v>
       </c>
@@ -7498,7 +7649,9 @@
       </c>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="1"/>
+      <c r="A82" s="1">
+        <v>2016</v>
+      </c>
       <c r="B82" s="2">
         <v>48</v>
       </c>
@@ -7531,7 +7684,9 @@
       </c>
     </row>
     <row r="83" spans="1:11">
-      <c r="A83" s="1"/>
+      <c r="A83" s="1">
+        <v>2016</v>
+      </c>
       <c r="B83" s="2">
         <v>49</v>
       </c>
@@ -7564,7 +7719,9 @@
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="1"/>
+      <c r="A84" s="1">
+        <v>2016</v>
+      </c>
       <c r="B84" s="2">
         <v>50</v>
       </c>
@@ -7597,7 +7754,9 @@
       </c>
     </row>
     <row r="85" spans="1:11">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1">
+        <v>2016</v>
+      </c>
       <c r="B85" s="2">
         <v>51</v>
       </c>
@@ -7630,7 +7789,9 @@
       </c>
     </row>
     <row r="86" spans="1:11">
-      <c r="A86" s="1"/>
+      <c r="A86" s="1">
+        <v>2016</v>
+      </c>
       <c r="B86" s="2">
         <v>52</v>
       </c>
@@ -7663,7 +7824,9 @@
       </c>
     </row>
     <row r="87" spans="1:11">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1">
+        <v>2016</v>
+      </c>
       <c r="B87" s="2">
         <v>53</v>
       </c>
@@ -7696,7 +7859,9 @@
       </c>
     </row>
     <row r="88" spans="1:11">
-      <c r="A88" s="1"/>
+      <c r="A88" s="1">
+        <v>2016</v>
+      </c>
       <c r="B88" s="2">
         <v>54</v>
       </c>
@@ -7729,7 +7894,9 @@
       </c>
     </row>
     <row r="89" spans="1:11">
-      <c r="A89" s="1"/>
+      <c r="A89" s="1">
+        <v>2016</v>
+      </c>
       <c r="B89" s="2">
         <v>55</v>
       </c>
@@ -7762,7 +7929,9 @@
       </c>
     </row>
     <row r="90" spans="1:11">
-      <c r="A90" s="1"/>
+      <c r="A90" s="1">
+        <v>2016</v>
+      </c>
       <c r="B90" s="2">
         <v>56</v>
       </c>
@@ -7795,7 +7964,9 @@
       </c>
     </row>
     <row r="91" spans="1:11">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1">
+        <v>2016</v>
+      </c>
       <c r="B91" s="2">
         <v>57</v>
       </c>
@@ -7828,7 +7999,9 @@
       </c>
     </row>
     <row r="92" spans="1:11">
-      <c r="A92" s="1"/>
+      <c r="A92" s="1">
+        <v>2016</v>
+      </c>
       <c r="B92" s="2">
         <v>58</v>
       </c>
@@ -7861,7 +8034,9 @@
       </c>
     </row>
     <row r="93" spans="1:11">
-      <c r="A93" s="1"/>
+      <c r="A93" s="1">
+        <v>2016</v>
+      </c>
       <c r="B93" s="2">
         <v>59</v>
       </c>
@@ -7894,7 +8069,9 @@
       </c>
     </row>
     <row r="94" spans="1:11">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1">
+        <v>2016</v>
+      </c>
       <c r="B94" s="2">
         <v>60</v>
       </c>
@@ -7927,7 +8104,9 @@
       </c>
     </row>
     <row r="95" spans="1:11">
-      <c r="A95" s="1"/>
+      <c r="A95" s="1">
+        <v>2016</v>
+      </c>
       <c r="B95" s="2">
         <v>61</v>
       </c>
@@ -7960,7 +8139,9 @@
       </c>
     </row>
     <row r="96" spans="1:11">
-      <c r="A96" s="1"/>
+      <c r="A96" s="1">
+        <v>2016</v>
+      </c>
       <c r="B96" s="2">
         <v>62</v>
       </c>
@@ -7993,7 +8174,9 @@
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>2016</v>
+      </c>
       <c r="B97" s="2">
         <v>63</v>
       </c>
@@ -8026,7 +8209,9 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>2016</v>
+      </c>
       <c r="B98" s="2">
         <v>64</v>
       </c>
@@ -8059,7 +8244,9 @@
       </c>
     </row>
     <row r="99" spans="1:11">
-      <c r="A99" s="1"/>
+      <c r="A99" s="1">
+        <v>2016</v>
+      </c>
       <c r="B99" s="2">
         <v>65</v>
       </c>
@@ -8092,7 +8279,9 @@
       </c>
     </row>
     <row r="100" spans="1:11">
-      <c r="A100" s="1"/>
+      <c r="A100" s="1">
+        <v>2016</v>
+      </c>
       <c r="B100" s="2">
         <v>66</v>
       </c>
@@ -8125,7 +8314,9 @@
       </c>
     </row>
     <row r="101" spans="1:11">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>2016</v>
+      </c>
       <c r="B101" s="2">
         <v>67</v>
       </c>
@@ -8158,7 +8349,9 @@
       </c>
     </row>
     <row r="102" spans="1:11">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>2016</v>
+      </c>
       <c r="B102" s="2">
         <v>68</v>
       </c>
@@ -8191,7 +8384,9 @@
       </c>
     </row>
     <row r="103" spans="1:11">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>2016</v>
+      </c>
       <c r="B103" s="2">
         <v>69</v>
       </c>
@@ -8224,7 +8419,9 @@
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>2016</v>
+      </c>
       <c r="B104" s="2">
         <v>70</v>
       </c>
@@ -8292,7 +8489,9 @@
       </c>
     </row>
     <row r="106" spans="1:11">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>2017</v>
+      </c>
       <c r="B106" s="2">
         <v>1</v>
       </c>
@@ -8325,7 +8524,9 @@
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>2017</v>
+      </c>
       <c r="B107" s="2">
         <v>2</v>
       </c>
@@ -8358,7 +8559,9 @@
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>2017</v>
+      </c>
       <c r="B108" s="2">
         <v>3</v>
       </c>
@@ -8391,7 +8594,9 @@
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>2017</v>
+      </c>
       <c r="B109" s="2">
         <v>4</v>
       </c>
@@ -8424,7 +8629,9 @@
       </c>
     </row>
     <row r="110" spans="1:11">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>2017</v>
+      </c>
       <c r="B110" s="2">
         <v>5</v>
       </c>
@@ -8457,7 +8664,9 @@
       </c>
     </row>
     <row r="111" spans="1:11">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>2017</v>
+      </c>
       <c r="B111" s="2">
         <v>6</v>
       </c>
@@ -8490,7 +8699,9 @@
       </c>
     </row>
     <row r="112" spans="1:11">
-      <c r="A112" s="1"/>
+      <c r="A112" s="1">
+        <v>2017</v>
+      </c>
       <c r="B112" s="2">
         <v>7</v>
       </c>
@@ -8523,7 +8734,9 @@
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="1"/>
+      <c r="A113" s="1">
+        <v>2017</v>
+      </c>
       <c r="B113" s="2">
         <v>8</v>
       </c>
@@ -8556,7 +8769,9 @@
       </c>
     </row>
     <row r="114" spans="1:11">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1">
+        <v>2017</v>
+      </c>
       <c r="B114" s="2">
         <v>9</v>
       </c>
@@ -8589,7 +8804,9 @@
       </c>
     </row>
     <row r="115" spans="1:11">
-      <c r="A115" s="1"/>
+      <c r="A115" s="1">
+        <v>2017</v>
+      </c>
       <c r="B115" s="2">
         <v>10</v>
       </c>
@@ -8622,7 +8839,9 @@
       </c>
     </row>
     <row r="116" spans="1:11">
-      <c r="A116" s="1"/>
+      <c r="A116" s="1">
+        <v>2017</v>
+      </c>
       <c r="B116" s="2">
         <v>11</v>
       </c>
@@ -8655,7 +8874,9 @@
       </c>
     </row>
     <row r="117" spans="1:11">
-      <c r="A117" s="1"/>
+      <c r="A117" s="1">
+        <v>2017</v>
+      </c>
       <c r="B117" s="2">
         <v>12</v>
       </c>
@@ -8688,7 +8909,9 @@
       </c>
     </row>
     <row r="118" spans="1:11">
-      <c r="A118" s="1"/>
+      <c r="A118" s="1">
+        <v>2017</v>
+      </c>
       <c r="B118" s="2">
         <v>13</v>
       </c>
@@ -8721,7 +8944,9 @@
       </c>
     </row>
     <row r="119" spans="1:11">
-      <c r="A119" s="1"/>
+      <c r="A119" s="1">
+        <v>2017</v>
+      </c>
       <c r="B119" s="2">
         <v>14</v>
       </c>
@@ -8754,7 +8979,9 @@
       </c>
     </row>
     <row r="120" spans="1:11">
-      <c r="A120" s="1"/>
+      <c r="A120" s="1">
+        <v>2017</v>
+      </c>
       <c r="B120" s="2">
         <v>15</v>
       </c>
@@ -8787,7 +9014,9 @@
       </c>
     </row>
     <row r="121" spans="1:11">
-      <c r="A121" s="1"/>
+      <c r="A121" s="1">
+        <v>2017</v>
+      </c>
       <c r="B121" s="2">
         <v>16</v>
       </c>
@@ -8820,7 +9049,9 @@
       </c>
     </row>
     <row r="122" spans="1:11">
-      <c r="A122" s="1"/>
+      <c r="A122" s="1">
+        <v>2017</v>
+      </c>
       <c r="B122" s="2">
         <v>17</v>
       </c>
@@ -8853,7 +9084,9 @@
       </c>
     </row>
     <row r="123" spans="1:11">
-      <c r="A123" s="1"/>
+      <c r="A123" s="1">
+        <v>2017</v>
+      </c>
       <c r="B123" s="2">
         <v>18</v>
       </c>
@@ -8886,7 +9119,9 @@
       </c>
     </row>
     <row r="124" spans="1:11">
-      <c r="A124" s="1"/>
+      <c r="A124" s="1">
+        <v>2017</v>
+      </c>
       <c r="B124" s="2">
         <v>19</v>
       </c>
@@ -8919,7 +9154,9 @@
       </c>
     </row>
     <row r="125" spans="1:11">
-      <c r="A125" s="1"/>
+      <c r="A125" s="1">
+        <v>2017</v>
+      </c>
       <c r="B125" s="2">
         <v>20</v>
       </c>
@@ -8952,7 +9189,9 @@
       </c>
     </row>
     <row r="126" spans="1:11">
-      <c r="A126" s="1"/>
+      <c r="A126" s="1">
+        <v>2017</v>
+      </c>
       <c r="B126" s="2">
         <v>21</v>
       </c>
@@ -8985,7 +9224,9 @@
       </c>
     </row>
     <row r="127" spans="1:11">
-      <c r="A127" s="1"/>
+      <c r="A127" s="1">
+        <v>2017</v>
+      </c>
       <c r="B127" s="2">
         <v>22</v>
       </c>
@@ -9018,7 +9259,9 @@
       </c>
     </row>
     <row r="128" spans="1:11">
-      <c r="A128" s="1"/>
+      <c r="A128" s="1">
+        <v>2017</v>
+      </c>
       <c r="B128" s="2">
         <v>23</v>
       </c>
@@ -9051,7 +9294,9 @@
       </c>
     </row>
     <row r="129" spans="1:11">
-      <c r="A129" s="1"/>
+      <c r="A129" s="1">
+        <v>2017</v>
+      </c>
       <c r="B129" s="2">
         <v>24</v>
       </c>
@@ -9084,7 +9329,9 @@
       </c>
     </row>
     <row r="130" spans="1:11">
-      <c r="A130" s="1"/>
+      <c r="A130" s="1">
+        <v>2017</v>
+      </c>
       <c r="B130" s="2">
         <v>25</v>
       </c>
@@ -9117,7 +9364,9 @@
       </c>
     </row>
     <row r="131" spans="1:11">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>2017</v>
+      </c>
       <c r="B131" s="2">
         <v>26</v>
       </c>
@@ -9150,7 +9399,9 @@
       </c>
     </row>
     <row r="132" spans="1:11">
-      <c r="A132" s="1"/>
+      <c r="A132" s="1">
+        <v>2017</v>
+      </c>
       <c r="B132" s="2">
         <v>27</v>
       </c>
@@ -9183,7 +9434,9 @@
       </c>
     </row>
     <row r="133" spans="1:11">
-      <c r="A133" s="1"/>
+      <c r="A133" s="1">
+        <v>2017</v>
+      </c>
       <c r="B133" s="2">
         <v>28</v>
       </c>
@@ -9216,7 +9469,9 @@
       </c>
     </row>
     <row r="134" spans="1:11">
-      <c r="A134" s="1"/>
+      <c r="A134" s="1">
+        <v>2017</v>
+      </c>
       <c r="B134" s="2">
         <v>29</v>
       </c>
@@ -9249,7 +9504,9 @@
       </c>
     </row>
     <row r="135" spans="1:11">
-      <c r="A135" s="1"/>
+      <c r="A135" s="1">
+        <v>2017</v>
+      </c>
       <c r="B135" s="2">
         <v>30</v>
       </c>
@@ -9282,7 +9539,9 @@
       </c>
     </row>
     <row r="136" spans="1:11">
-      <c r="A136" s="1"/>
+      <c r="A136" s="1">
+        <v>2017</v>
+      </c>
       <c r="B136" s="2">
         <v>31</v>
       </c>
@@ -9315,7 +9574,9 @@
       </c>
     </row>
     <row r="137" spans="1:11">
-      <c r="A137" s="1"/>
+      <c r="A137" s="1">
+        <v>2017</v>
+      </c>
       <c r="B137" s="2">
         <v>32</v>
       </c>
@@ -9348,7 +9609,9 @@
       </c>
     </row>
     <row r="138" spans="1:11">
-      <c r="A138" s="1"/>
+      <c r="A138" s="1">
+        <v>2017</v>
+      </c>
       <c r="B138" s="2">
         <v>33</v>
       </c>
@@ -9381,7 +9644,9 @@
       </c>
     </row>
     <row r="139" spans="1:11">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1">
+        <v>2017</v>
+      </c>
       <c r="B139" s="2">
         <v>34</v>
       </c>
@@ -9414,7 +9679,9 @@
       </c>
     </row>
     <row r="140" spans="1:11">
-      <c r="A140" s="1"/>
+      <c r="A140" s="1">
+        <v>2017</v>
+      </c>
       <c r="B140" s="2">
         <v>35</v>
       </c>
@@ -9447,7 +9714,9 @@
       </c>
     </row>
     <row r="141" spans="1:11">
-      <c r="A141" s="1"/>
+      <c r="A141" s="1">
+        <v>2017</v>
+      </c>
       <c r="B141" s="2">
         <v>36</v>
       </c>
@@ -9480,7 +9749,9 @@
       </c>
     </row>
     <row r="142" spans="1:11">
-      <c r="A142" s="1"/>
+      <c r="A142" s="1">
+        <v>2017</v>
+      </c>
       <c r="B142" s="2">
         <v>37</v>
       </c>
@@ -9513,7 +9784,9 @@
       </c>
     </row>
     <row r="143" spans="1:11">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1">
+        <v>2017</v>
+      </c>
       <c r="B143" s="2">
         <v>38</v>
       </c>
@@ -9546,7 +9819,9 @@
       </c>
     </row>
     <row r="144" spans="1:11">
-      <c r="A144" s="1"/>
+      <c r="A144" s="1">
+        <v>2017</v>
+      </c>
       <c r="B144" s="2">
         <v>39</v>
       </c>
@@ -9579,7 +9854,9 @@
       </c>
     </row>
     <row r="145" spans="1:11">
-      <c r="A145" s="1"/>
+      <c r="A145" s="1">
+        <v>2017</v>
+      </c>
       <c r="B145" s="2">
         <v>40</v>
       </c>
@@ -9612,7 +9889,9 @@
       </c>
     </row>
     <row r="146" spans="1:11">
-      <c r="A146" s="1"/>
+      <c r="A146" s="1">
+        <v>2017</v>
+      </c>
       <c r="B146" s="2">
         <v>41</v>
       </c>
@@ -9645,7 +9924,9 @@
       </c>
     </row>
     <row r="147" spans="1:11">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1">
+        <v>2017</v>
+      </c>
       <c r="B147" s="2">
         <v>42</v>
       </c>
@@ -9678,7 +9959,9 @@
       </c>
     </row>
     <row r="148" spans="1:11">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1">
+        <v>2017</v>
+      </c>
       <c r="B148" s="2">
         <v>43</v>
       </c>
@@ -9711,7 +9994,9 @@
       </c>
     </row>
     <row r="149" spans="1:11">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1">
+        <v>2017</v>
+      </c>
       <c r="B149" s="2">
         <v>44</v>
       </c>
@@ -9744,7 +10029,9 @@
       </c>
     </row>
     <row r="150" spans="1:11">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1">
+        <v>2017</v>
+      </c>
       <c r="B150" s="2">
         <v>45</v>
       </c>
@@ -9777,7 +10064,9 @@
       </c>
     </row>
     <row r="151" spans="1:11">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1">
+        <v>2017</v>
+      </c>
       <c r="B151" s="2">
         <v>46</v>
       </c>
@@ -9810,7 +10099,9 @@
       </c>
     </row>
     <row r="152" spans="1:11">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1">
+        <v>2017</v>
+      </c>
       <c r="B152" s="2">
         <v>47</v>
       </c>
@@ -9843,7 +10134,9 @@
       </c>
     </row>
     <row r="153" spans="1:11">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1">
+        <v>2017</v>
+      </c>
       <c r="B153" s="2">
         <v>48</v>
       </c>
@@ -9876,7 +10169,9 @@
       </c>
     </row>
     <row r="154" spans="1:11">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1">
+        <v>2017</v>
+      </c>
       <c r="B154" s="2">
         <v>49</v>
       </c>
@@ -9909,7 +10204,9 @@
       </c>
     </row>
     <row r="155" spans="1:11">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1">
+        <v>2017</v>
+      </c>
       <c r="B155" s="2">
         <v>50</v>
       </c>
@@ -9942,7 +10239,9 @@
       </c>
     </row>
     <row r="156" spans="1:11">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1">
+        <v>2017</v>
+      </c>
       <c r="B156" s="2">
         <v>51</v>
       </c>
@@ -9975,7 +10274,9 @@
       </c>
     </row>
     <row r="157" spans="1:11">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1">
+        <v>2017</v>
+      </c>
       <c r="B157" s="2">
         <v>52</v>
       </c>
@@ -10008,7 +10309,9 @@
       </c>
     </row>
     <row r="158" spans="1:11">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1">
+        <v>2017</v>
+      </c>
       <c r="B158" s="2">
         <v>53</v>
       </c>
@@ -10041,7 +10344,9 @@
       </c>
     </row>
     <row r="159" spans="1:11">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1">
+        <v>2017</v>
+      </c>
       <c r="B159" s="2">
         <v>54</v>
       </c>
@@ -10074,7 +10379,9 @@
       </c>
     </row>
     <row r="160" spans="1:11">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1">
+        <v>2017</v>
+      </c>
       <c r="B160" s="2">
         <v>55</v>
       </c>
@@ -10107,7 +10414,9 @@
       </c>
     </row>
     <row r="161" spans="1:11">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1">
+        <v>2017</v>
+      </c>
       <c r="B161" s="2">
         <v>56</v>
       </c>
@@ -10140,7 +10449,9 @@
       </c>
     </row>
     <row r="162" spans="1:11">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1">
+        <v>2017</v>
+      </c>
       <c r="B162" s="2">
         <v>57</v>
       </c>
@@ -10173,7 +10484,9 @@
       </c>
     </row>
     <row r="163" spans="1:11">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1">
+        <v>2017</v>
+      </c>
       <c r="B163" s="2">
         <v>58</v>
       </c>
@@ -10206,7 +10519,9 @@
       </c>
     </row>
     <row r="164" spans="1:11">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1">
+        <v>2017</v>
+      </c>
       <c r="B164" s="2">
         <v>59</v>
       </c>
@@ -10239,7 +10554,9 @@
       </c>
     </row>
     <row r="165" spans="1:11">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>2017</v>
+      </c>
       <c r="B165" s="2">
         <v>60</v>
       </c>
@@ -10272,7 +10589,9 @@
       </c>
     </row>
     <row r="166" spans="1:11">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1">
+        <v>2017</v>
+      </c>
       <c r="B166" s="2">
         <v>61</v>
       </c>
@@ -10305,7 +10624,9 @@
       </c>
     </row>
     <row r="167" spans="1:11">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1">
+        <v>2017</v>
+      </c>
       <c r="B167" s="2">
         <v>62</v>
       </c>
@@ -10338,7 +10659,9 @@
       </c>
     </row>
     <row r="168" spans="1:11">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1">
+        <v>2017</v>
+      </c>
       <c r="B168" s="2">
         <v>63</v>
       </c>
@@ -10371,7 +10694,9 @@
       </c>
     </row>
     <row r="169" spans="1:11">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1">
+        <v>2017</v>
+      </c>
       <c r="B169" s="2">
         <v>64</v>
       </c>
@@ -10404,7 +10729,9 @@
       </c>
     </row>
     <row r="170" spans="1:11">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1">
+        <v>2017</v>
+      </c>
       <c r="B170" s="2">
         <v>65</v>
       </c>
@@ -10437,7 +10764,9 @@
       </c>
     </row>
     <row r="171" spans="1:11">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1">
+        <v>2017</v>
+      </c>
       <c r="B171" s="2">
         <v>66</v>
       </c>
@@ -10470,7 +10799,9 @@
       </c>
     </row>
     <row r="172" spans="1:11">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1">
+        <v>2017</v>
+      </c>
       <c r="B172" s="2">
         <v>67</v>
       </c>
@@ -10503,7 +10834,9 @@
       </c>
     </row>
     <row r="173" spans="1:11">
-      <c r="A173" s="1"/>
+      <c r="A173" s="1">
+        <v>2017</v>
+      </c>
       <c r="B173" s="2">
         <v>68</v>
       </c>
@@ -10536,7 +10869,9 @@
       </c>
     </row>
     <row r="174" spans="1:11">
-      <c r="A174" s="1"/>
+      <c r="A174" s="1">
+        <v>2017</v>
+      </c>
       <c r="B174" s="2">
         <v>69</v>
       </c>
@@ -10569,7 +10904,9 @@
       </c>
     </row>
     <row r="175" spans="1:11">
-      <c r="A175" s="1"/>
+      <c r="A175" s="1">
+        <v>2017</v>
+      </c>
       <c r="B175" s="2">
         <v>70</v>
       </c>
@@ -10602,7 +10939,9 @@
       </c>
     </row>
     <row r="176" spans="1:11">
-      <c r="A176" s="1"/>
+      <c r="A176" s="1">
+        <v>2017</v>
+      </c>
       <c r="B176" s="2">
         <v>71</v>
       </c>
@@ -10635,7 +10974,9 @@
       </c>
     </row>
     <row r="177" spans="1:11">
-      <c r="A177" s="1"/>
+      <c r="A177" s="1">
+        <v>2017</v>
+      </c>
       <c r="B177" s="2">
         <v>72</v>
       </c>
@@ -10668,7 +11009,9 @@
       </c>
     </row>
     <row r="178" spans="1:11">
-      <c r="A178" s="1"/>
+      <c r="A178" s="1">
+        <v>2017</v>
+      </c>
       <c r="B178" s="2">
         <v>73</v>
       </c>
@@ -10701,7 +11044,9 @@
       </c>
     </row>
     <row r="179" spans="1:11">
-      <c r="A179" s="1"/>
+      <c r="A179" s="1">
+        <v>2017</v>
+      </c>
       <c r="B179" s="2">
         <v>74</v>
       </c>
@@ -10734,7 +11079,9 @@
       </c>
     </row>
     <row r="180" spans="1:11">
-      <c r="A180" s="1"/>
+      <c r="A180" s="1">
+        <v>2017</v>
+      </c>
       <c r="B180" s="2">
         <v>75</v>
       </c>
@@ -10767,7 +11114,9 @@
       </c>
     </row>
     <row r="181" spans="1:11">
-      <c r="A181" s="1"/>
+      <c r="A181" s="1">
+        <v>2017</v>
+      </c>
       <c r="B181" s="2">
         <v>76</v>
       </c>
@@ -10800,7 +11149,9 @@
       </c>
     </row>
     <row r="182" spans="1:11">
-      <c r="A182" s="1"/>
+      <c r="A182" s="1">
+        <v>2017</v>
+      </c>
       <c r="B182" s="2">
         <v>77</v>
       </c>
@@ -10833,7 +11184,9 @@
       </c>
     </row>
     <row r="183" spans="1:11">
-      <c r="A183" s="1"/>
+      <c r="A183" s="1">
+        <v>2017</v>
+      </c>
       <c r="B183" s="2">
         <v>78</v>
       </c>
@@ -10866,7 +11219,9 @@
       </c>
     </row>
     <row r="184" spans="1:11">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>2017</v>
+      </c>
       <c r="B184" s="2">
         <v>79</v>
       </c>
@@ -10899,7 +11254,9 @@
       </c>
     </row>
     <row r="185" spans="1:11">
-      <c r="A185" s="1"/>
+      <c r="A185" s="1">
+        <v>2017</v>
+      </c>
       <c r="B185" s="2">
         <v>80</v>
       </c>
@@ -10932,7 +11289,9 @@
       </c>
     </row>
     <row r="186" spans="1:11">
-      <c r="A186" s="1"/>
+      <c r="A186" s="1">
+        <v>2017</v>
+      </c>
       <c r="B186" s="2">
         <v>81</v>
       </c>
@@ -10965,7 +11324,9 @@
       </c>
     </row>
     <row r="187" spans="1:11">
-      <c r="A187" s="1"/>
+      <c r="A187" s="1">
+        <v>2017</v>
+      </c>
       <c r="B187" s="2">
         <v>82</v>
       </c>
@@ -10998,7 +11359,9 @@
       </c>
     </row>
     <row r="188" spans="1:11">
-      <c r="A188" s="1"/>
+      <c r="A188" s="1">
+        <v>2017</v>
+      </c>
       <c r="B188" s="2">
         <v>83</v>
       </c>
@@ -11031,7 +11394,9 @@
       </c>
     </row>
     <row r="189" spans="1:11">
-      <c r="A189" s="1"/>
+      <c r="A189" s="1">
+        <v>2017</v>
+      </c>
       <c r="B189" s="2">
         <v>84</v>
       </c>
@@ -11064,7 +11429,9 @@
       </c>
     </row>
     <row r="190" spans="1:11">
-      <c r="A190" s="1"/>
+      <c r="A190" s="1">
+        <v>2017</v>
+      </c>
       <c r="B190" s="2">
         <v>85</v>
       </c>
@@ -11097,7 +11464,9 @@
       </c>
     </row>
     <row r="191" spans="1:11">
-      <c r="A191" s="1"/>
+      <c r="A191" s="1">
+        <v>2017</v>
+      </c>
       <c r="B191" s="2">
         <v>86</v>
       </c>
@@ -11130,7 +11499,9 @@
       </c>
     </row>
     <row r="192" spans="1:11">
-      <c r="A192" s="1"/>
+      <c r="A192" s="1">
+        <v>2017</v>
+      </c>
       <c r="B192" s="2">
         <v>87</v>
       </c>
@@ -11163,7 +11534,9 @@
       </c>
     </row>
     <row r="193" spans="1:11">
-      <c r="A193" s="1"/>
+      <c r="A193" s="1">
+        <v>2017</v>
+      </c>
       <c r="B193" s="2">
         <v>88</v>
       </c>
@@ -11196,7 +11569,9 @@
       </c>
     </row>
     <row r="194" spans="1:11">
-      <c r="A194" s="1"/>
+      <c r="A194" s="1">
+        <v>2017</v>
+      </c>
       <c r="B194" s="2">
         <v>89</v>
       </c>
@@ -11229,7 +11604,9 @@
       </c>
     </row>
     <row r="195" spans="1:11">
-      <c r="A195" s="1"/>
+      <c r="A195" s="1">
+        <v>2017</v>
+      </c>
       <c r="B195" s="2">
         <v>90</v>
       </c>
@@ -11262,7 +11639,9 @@
       </c>
     </row>
     <row r="196" spans="1:11">
-      <c r="A196" s="1"/>
+      <c r="A196" s="1">
+        <v>2017</v>
+      </c>
       <c r="B196" s="2">
         <v>91</v>
       </c>
@@ -11295,7 +11674,9 @@
       </c>
     </row>
     <row r="197" spans="1:11">
-      <c r="A197" s="1"/>
+      <c r="A197" s="1">
+        <v>2017</v>
+      </c>
       <c r="B197" s="2">
         <v>92</v>
       </c>
@@ -11328,7 +11709,9 @@
       </c>
     </row>
     <row r="198" spans="1:11">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1">
+        <v>2017</v>
+      </c>
       <c r="B198" s="2">
         <v>93</v>
       </c>
@@ -11361,7 +11744,9 @@
       </c>
     </row>
     <row r="199" spans="1:11">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1">
+        <v>2017</v>
+      </c>
       <c r="B199" s="2">
         <v>94</v>
       </c>
@@ -11394,7 +11779,9 @@
       </c>
     </row>
     <row r="200" spans="1:11">
-      <c r="A200" s="1"/>
+      <c r="A200" s="1">
+        <v>2017</v>
+      </c>
       <c r="B200" s="2">
         <v>95</v>
       </c>
@@ -11427,7 +11814,9 @@
       </c>
     </row>
     <row r="201" spans="1:11">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>2017</v>
+      </c>
       <c r="B201" s="2">
         <v>96</v>
       </c>
@@ -11460,7 +11849,9 @@
       </c>
     </row>
     <row r="202" spans="1:11">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1">
+        <v>2017</v>
+      </c>
       <c r="B202" s="2">
         <v>97</v>
       </c>
@@ -11493,7 +11884,9 @@
       </c>
     </row>
     <row r="203" spans="1:11">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>2017</v>
+      </c>
       <c r="B203" s="2">
         <v>98</v>
       </c>
@@ -11526,7 +11919,9 @@
       </c>
     </row>
     <row r="204" spans="1:11">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>2017</v>
+      </c>
       <c r="B204" s="2">
         <v>99</v>
       </c>
@@ -11559,7 +11954,9 @@
       </c>
     </row>
     <row r="205" spans="1:11">
-      <c r="A205" s="1"/>
+      <c r="A205" s="1">
+        <v>2017</v>
+      </c>
       <c r="B205" s="2">
         <v>100</v>
       </c>
@@ -11592,7 +11989,9 @@
       </c>
     </row>
     <row r="206" spans="1:11">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>2017</v>
+      </c>
       <c r="B206" s="2">
         <v>101</v>
       </c>
@@ -11625,7 +12024,9 @@
       </c>
     </row>
     <row r="207" spans="1:11">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>2017</v>
+      </c>
       <c r="B207" s="2">
         <v>102</v>
       </c>
@@ -11658,7 +12059,9 @@
       </c>
     </row>
     <row r="208" spans="1:11">
-      <c r="A208" s="1"/>
+      <c r="A208" s="1">
+        <v>2017</v>
+      </c>
       <c r="B208" s="2">
         <v>103</v>
       </c>
@@ -11691,7 +12094,9 @@
       </c>
     </row>
     <row r="209" spans="1:11">
-      <c r="A209" s="1"/>
+      <c r="A209" s="1">
+        <v>2017</v>
+      </c>
       <c r="B209" s="2">
         <v>104</v>
       </c>
@@ -11724,7 +12129,9 @@
       </c>
     </row>
     <row r="210" spans="1:11">
-      <c r="A210" s="1"/>
+      <c r="A210" s="1">
+        <v>2017</v>
+      </c>
       <c r="B210" s="2">
         <v>105</v>
       </c>
@@ -11757,7 +12164,9 @@
       </c>
     </row>
     <row r="211" spans="1:11">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1">
+        <v>2017</v>
+      </c>
       <c r="B211" s="2">
         <v>106</v>
       </c>
@@ -11790,7 +12199,9 @@
       </c>
     </row>
     <row r="212" spans="1:11">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1">
+        <v>2017</v>
+      </c>
       <c r="B212" s="2">
         <v>107</v>
       </c>
@@ -11858,7 +12269,9 @@
       </c>
     </row>
     <row r="214" spans="1:11">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1">
+        <v>2018</v>
+      </c>
       <c r="B214" s="2">
         <v>1</v>
       </c>
@@ -11891,7 +12304,9 @@
       </c>
     </row>
     <row r="215" spans="1:11">
-      <c r="A215" s="1"/>
+      <c r="A215" s="1">
+        <v>2018</v>
+      </c>
       <c r="B215" s="2">
         <v>2</v>
       </c>
@@ -11924,7 +12339,9 @@
       </c>
     </row>
     <row r="216" spans="1:11">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1">
+        <v>2018</v>
+      </c>
       <c r="B216" s="2">
         <v>3</v>
       </c>
@@ -11957,7 +12374,9 @@
       </c>
     </row>
     <row r="217" spans="1:11">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1">
+        <v>2018</v>
+      </c>
       <c r="B217" s="2">
         <v>4</v>
       </c>
@@ -11990,7 +12409,9 @@
       </c>
     </row>
     <row r="218" spans="1:11">
-      <c r="A218" s="1"/>
+      <c r="A218" s="1">
+        <v>2018</v>
+      </c>
       <c r="B218" s="2">
         <v>5</v>
       </c>
@@ -12023,7 +12444,9 @@
       </c>
     </row>
     <row r="219" spans="1:11">
-      <c r="A219" s="1"/>
+      <c r="A219" s="1">
+        <v>2018</v>
+      </c>
       <c r="B219" s="2">
         <v>6</v>
       </c>
@@ -12056,7 +12479,9 @@
       </c>
     </row>
     <row r="220" spans="1:11">
-      <c r="A220" s="1"/>
+      <c r="A220" s="1">
+        <v>2018</v>
+      </c>
       <c r="B220" s="2">
         <v>7</v>
       </c>
@@ -12089,7 +12514,9 @@
       </c>
     </row>
     <row r="221" spans="1:11">
-      <c r="A221" s="1"/>
+      <c r="A221" s="1">
+        <v>2018</v>
+      </c>
       <c r="B221" s="2">
         <v>8</v>
       </c>
@@ -12122,7 +12549,9 @@
       </c>
     </row>
     <row r="222" spans="1:11">
-      <c r="A222" s="1"/>
+      <c r="A222" s="1">
+        <v>2018</v>
+      </c>
       <c r="B222" s="2">
         <v>9</v>
       </c>
@@ -12155,7 +12584,9 @@
       </c>
     </row>
     <row r="223" spans="1:11">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>2018</v>
+      </c>
       <c r="B223" s="2">
         <v>10</v>
       </c>
@@ -12188,7 +12619,9 @@
       </c>
     </row>
     <row r="224" spans="1:11">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>2018</v>
+      </c>
       <c r="B224" s="2">
         <v>11</v>
       </c>
@@ -12221,7 +12654,9 @@
       </c>
     </row>
     <row r="225" spans="1:11">
-      <c r="A225" s="1"/>
+      <c r="A225" s="1">
+        <v>2018</v>
+      </c>
       <c r="B225" s="2">
         <v>12</v>
       </c>
@@ -12254,7 +12689,9 @@
       </c>
     </row>
     <row r="226" spans="1:11">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1">
+        <v>2018</v>
+      </c>
       <c r="B226" s="2">
         <v>13</v>
       </c>
@@ -12287,7 +12724,9 @@
       </c>
     </row>
     <row r="227" spans="1:11">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1">
+        <v>2018</v>
+      </c>
       <c r="B227" s="2">
         <v>14</v>
       </c>
@@ -12320,7 +12759,9 @@
       </c>
     </row>
     <row r="228" spans="1:11">
-      <c r="A228" s="1"/>
+      <c r="A228" s="1">
+        <v>2018</v>
+      </c>
       <c r="B228" s="2">
         <v>15</v>
       </c>
@@ -12353,7 +12794,9 @@
       </c>
     </row>
     <row r="229" spans="1:11">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1">
+        <v>2018</v>
+      </c>
       <c r="B229" s="2">
         <v>16</v>
       </c>
@@ -12386,7 +12829,9 @@
       </c>
     </row>
     <row r="230" spans="1:11">
-      <c r="A230" s="1"/>
+      <c r="A230" s="1">
+        <v>2018</v>
+      </c>
       <c r="B230" s="2">
         <v>17</v>
       </c>
@@ -12419,7 +12864,9 @@
       </c>
     </row>
     <row r="231" spans="1:11">
-      <c r="A231" s="1"/>
+      <c r="A231" s="1">
+        <v>2018</v>
+      </c>
       <c r="B231" s="2">
         <v>18</v>
       </c>
@@ -12452,7 +12899,9 @@
       </c>
     </row>
     <row r="232" spans="1:11">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1">
+        <v>2018</v>
+      </c>
       <c r="B232" s="2">
         <v>19</v>
       </c>
@@ -12485,7 +12934,9 @@
       </c>
     </row>
     <row r="233" spans="1:11">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1">
+        <v>2018</v>
+      </c>
       <c r="B233" s="2">
         <v>20</v>
       </c>
@@ -12518,7 +12969,9 @@
       </c>
     </row>
     <row r="234" spans="1:11">
-      <c r="A234" s="1"/>
+      <c r="A234" s="1">
+        <v>2018</v>
+      </c>
       <c r="B234" s="2">
         <v>21</v>
       </c>
@@ -12551,7 +13004,9 @@
       </c>
     </row>
     <row r="235" spans="1:11">
-      <c r="A235" s="1"/>
+      <c r="A235" s="1">
+        <v>2018</v>
+      </c>
       <c r="B235" s="2">
         <v>22</v>
       </c>
@@ -12584,7 +13039,9 @@
       </c>
     </row>
     <row r="236" spans="1:11">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>2018</v>
+      </c>
       <c r="B236" s="2">
         <v>23</v>
       </c>
@@ -12617,7 +13074,9 @@
       </c>
     </row>
     <row r="237" spans="1:11">
-      <c r="A237" s="1"/>
+      <c r="A237" s="1">
+        <v>2018</v>
+      </c>
       <c r="B237" s="2">
         <v>24</v>
       </c>
@@ -12650,7 +13109,9 @@
       </c>
     </row>
     <row r="238" spans="1:11">
-      <c r="A238" s="1"/>
+      <c r="A238" s="1">
+        <v>2018</v>
+      </c>
       <c r="B238" s="2">
         <v>25</v>
       </c>
@@ -12683,7 +13144,9 @@
       </c>
     </row>
     <row r="239" spans="1:11">
-      <c r="A239" s="1"/>
+      <c r="A239" s="1">
+        <v>2018</v>
+      </c>
       <c r="B239" s="2">
         <v>26</v>
       </c>
@@ -12716,7 +13179,9 @@
       </c>
     </row>
     <row r="240" spans="1:11">
-      <c r="A240" s="1"/>
+      <c r="A240" s="1">
+        <v>2018</v>
+      </c>
       <c r="B240" s="2">
         <v>27</v>
       </c>
@@ -12749,7 +13214,9 @@
       </c>
     </row>
     <row r="241" spans="1:11">
-      <c r="A241" s="1"/>
+      <c r="A241" s="1">
+        <v>2018</v>
+      </c>
       <c r="B241" s="2">
         <v>28</v>
       </c>
@@ -12782,7 +13249,9 @@
       </c>
     </row>
     <row r="242" spans="1:11">
-      <c r="A242" s="1"/>
+      <c r="A242" s="1">
+        <v>2018</v>
+      </c>
       <c r="B242" s="2">
         <v>29</v>
       </c>
@@ -12815,7 +13284,9 @@
       </c>
     </row>
     <row r="243" spans="1:11">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1">
+        <v>2018</v>
+      </c>
       <c r="B243" s="2">
         <v>30</v>
       </c>
@@ -12848,7 +13319,9 @@
       </c>
     </row>
     <row r="244" spans="1:11">
-      <c r="A244" s="1"/>
+      <c r="A244" s="1">
+        <v>2018</v>
+      </c>
       <c r="B244" s="2">
         <v>31</v>
       </c>
@@ -12881,7 +13354,9 @@
       </c>
     </row>
     <row r="245" spans="1:11">
-      <c r="A245" s="1"/>
+      <c r="A245" s="1">
+        <v>2018</v>
+      </c>
       <c r="B245" s="2">
         <v>32</v>
       </c>
@@ -12914,7 +13389,9 @@
       </c>
     </row>
     <row r="246" spans="1:11">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1">
+        <v>2018</v>
+      </c>
       <c r="B246" s="2">
         <v>33</v>
       </c>
@@ -12947,7 +13424,9 @@
       </c>
     </row>
     <row r="247" spans="1:11">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>2018</v>
+      </c>
       <c r="B247" s="2">
         <v>34</v>
       </c>
@@ -12980,7 +13459,9 @@
       </c>
     </row>
     <row r="248" spans="1:11">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>2018</v>
+      </c>
       <c r="B248" s="2">
         <v>35</v>
       </c>
@@ -13013,7 +13494,9 @@
       </c>
     </row>
     <row r="249" spans="1:11">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>2018</v>
+      </c>
       <c r="B249" s="2">
         <v>36</v>
       </c>
@@ -13046,7 +13529,9 @@
       </c>
     </row>
     <row r="250" spans="1:11">
-      <c r="A250" s="1"/>
+      <c r="A250" s="1">
+        <v>2018</v>
+      </c>
       <c r="B250" s="2">
         <v>37</v>
       </c>
@@ -13079,7 +13564,9 @@
       </c>
     </row>
     <row r="251" spans="1:11">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1">
+        <v>2018</v>
+      </c>
       <c r="B251" s="2">
         <v>38</v>
       </c>
@@ -13112,7 +13599,9 @@
       </c>
     </row>
     <row r="252" spans="1:11">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1">
+        <v>2018</v>
+      </c>
       <c r="B252" s="2">
         <v>39</v>
       </c>
@@ -13145,7 +13634,9 @@
       </c>
     </row>
     <row r="253" spans="1:11">
-      <c r="A253" s="1"/>
+      <c r="A253" s="1">
+        <v>2018</v>
+      </c>
       <c r="B253" s="2">
         <v>40</v>
       </c>
@@ -13178,7 +13669,9 @@
       </c>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>2018</v>
+      </c>
       <c r="B254" s="2">
         <v>41</v>
       </c>
@@ -13211,7 +13704,9 @@
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>2018</v>
+      </c>
       <c r="B255" s="2">
         <v>42</v>
       </c>
@@ -13244,7 +13739,9 @@
       </c>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="1"/>
+      <c r="A256" s="1">
+        <v>2018</v>
+      </c>
       <c r="B256" s="2">
         <v>43</v>
       </c>
@@ -13277,7 +13774,9 @@
       </c>
     </row>
     <row r="257" spans="1:11">
-      <c r="A257" s="1"/>
+      <c r="A257" s="1">
+        <v>2018</v>
+      </c>
       <c r="B257" s="2">
         <v>44</v>
       </c>
@@ -13310,7 +13809,9 @@
       </c>
     </row>
     <row r="258" spans="1:11">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>2018</v>
+      </c>
       <c r="B258" s="2">
         <v>45</v>
       </c>
@@ -13343,7 +13844,9 @@
       </c>
     </row>
     <row r="259" spans="1:11">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>2018</v>
+      </c>
       <c r="B259" s="2">
         <v>46</v>
       </c>
@@ -13376,7 +13879,9 @@
       </c>
     </row>
     <row r="260" spans="1:11">
-      <c r="A260" s="1"/>
+      <c r="A260" s="1">
+        <v>2018</v>
+      </c>
       <c r="B260" s="2">
         <v>47</v>
       </c>
@@ -13409,7 +13914,9 @@
       </c>
     </row>
     <row r="261" spans="1:11">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>2018</v>
+      </c>
       <c r="B261" s="2">
         <v>48</v>
       </c>
@@ -13442,7 +13949,9 @@
       </c>
     </row>
     <row r="262" spans="1:11">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>2018</v>
+      </c>
       <c r="B262" s="2">
         <v>49</v>
       </c>
@@ -13475,7 +13984,9 @@
       </c>
     </row>
     <row r="263" spans="1:11">
-      <c r="A263" s="1"/>
+      <c r="A263" s="1">
+        <v>2018</v>
+      </c>
       <c r="B263" s="2">
         <v>50</v>
       </c>
@@ -13508,7 +14019,9 @@
       </c>
     </row>
     <row r="264" spans="1:11">
-      <c r="A264" s="1"/>
+      <c r="A264" s="1">
+        <v>2018</v>
+      </c>
       <c r="B264" s="2">
         <v>51</v>
       </c>
@@ -13541,7 +14054,9 @@
       </c>
     </row>
     <row r="265" spans="1:11">
-      <c r="A265" s="1"/>
+      <c r="A265" s="1">
+        <v>2018</v>
+      </c>
       <c r="B265" s="2">
         <v>52</v>
       </c>
@@ -13574,7 +14089,9 @@
       </c>
     </row>
     <row r="266" spans="1:11">
-      <c r="A266" s="1"/>
+      <c r="A266" s="1">
+        <v>2018</v>
+      </c>
       <c r="B266" s="2">
         <v>53</v>
       </c>
@@ -13607,7 +14124,9 @@
       </c>
     </row>
     <row r="267" spans="1:11">
-      <c r="A267" s="1"/>
+      <c r="A267" s="1">
+        <v>2018</v>
+      </c>
       <c r="B267" s="2">
         <v>54</v>
       </c>
@@ -13640,7 +14159,9 @@
       </c>
     </row>
     <row r="268" spans="1:11">
-      <c r="A268" s="1"/>
+      <c r="A268" s="1">
+        <v>2018</v>
+      </c>
       <c r="B268" s="2">
         <v>55</v>
       </c>
@@ -13673,7 +14194,9 @@
       </c>
     </row>
     <row r="269" spans="1:11">
-      <c r="A269" s="1"/>
+      <c r="A269" s="1">
+        <v>2018</v>
+      </c>
       <c r="B269" s="2">
         <v>56</v>
       </c>
@@ -13706,7 +14229,9 @@
       </c>
     </row>
     <row r="270" spans="1:11">
-      <c r="A270" s="1"/>
+      <c r="A270" s="1">
+        <v>2018</v>
+      </c>
       <c r="B270" s="2">
         <v>57</v>
       </c>
@@ -13739,7 +14264,9 @@
       </c>
     </row>
     <row r="271" spans="1:11">
-      <c r="A271" s="1"/>
+      <c r="A271" s="1">
+        <v>2018</v>
+      </c>
       <c r="B271" s="2">
         <v>58</v>
       </c>
@@ -13772,7 +14299,9 @@
       </c>
     </row>
     <row r="272" spans="1:11">
-      <c r="A272" s="1"/>
+      <c r="A272" s="1">
+        <v>2018</v>
+      </c>
       <c r="B272" s="2">
         <v>59</v>
       </c>
@@ -13805,7 +14334,9 @@
       </c>
     </row>
     <row r="273" spans="1:11">
-      <c r="A273" s="1"/>
+      <c r="A273" s="1">
+        <v>2018</v>
+      </c>
       <c r="B273" s="2">
         <v>60</v>
       </c>
@@ -13838,7 +14369,9 @@
       </c>
     </row>
     <row r="274" spans="1:11">
-      <c r="A274" s="1"/>
+      <c r="A274" s="1">
+        <v>2018</v>
+      </c>
       <c r="B274" s="2">
         <v>61</v>
       </c>
@@ -13871,7 +14404,9 @@
       </c>
     </row>
     <row r="275" spans="1:11">
-      <c r="A275" s="1"/>
+      <c r="A275" s="1">
+        <v>2018</v>
+      </c>
       <c r="B275" s="2">
         <v>62</v>
       </c>
@@ -13904,7 +14439,9 @@
       </c>
     </row>
     <row r="276" spans="1:11">
-      <c r="A276" s="1"/>
+      <c r="A276" s="1">
+        <v>2018</v>
+      </c>
       <c r="B276" s="2">
         <v>63</v>
       </c>
@@ -13937,7 +14474,9 @@
       </c>
     </row>
     <row r="277" spans="1:11">
-      <c r="A277" s="1"/>
+      <c r="A277" s="1">
+        <v>2018</v>
+      </c>
       <c r="B277" s="2">
         <v>64</v>
       </c>
@@ -13970,7 +14509,9 @@
       </c>
     </row>
     <row r="278" spans="1:11">
-      <c r="A278" s="1"/>
+      <c r="A278" s="1">
+        <v>2018</v>
+      </c>
       <c r="B278" s="2">
         <v>65</v>
       </c>
@@ -14003,7 +14544,9 @@
       </c>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1">
+        <v>2018</v>
+      </c>
       <c r="B279" s="2">
         <v>66</v>
       </c>
@@ -14036,7 +14579,9 @@
       </c>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="1"/>
+      <c r="A280" s="1">
+        <v>2018</v>
+      </c>
       <c r="B280" s="2">
         <v>67</v>
       </c>
@@ -14069,7 +14614,9 @@
       </c>
     </row>
     <row r="281" spans="1:11">
-      <c r="A281" s="1"/>
+      <c r="A281" s="1">
+        <v>2018</v>
+      </c>
       <c r="B281" s="2">
         <v>68</v>
       </c>
@@ -14102,7 +14649,9 @@
       </c>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="1"/>
+      <c r="A282" s="1">
+        <v>2018</v>
+      </c>
       <c r="B282" s="2">
         <v>69</v>
       </c>
@@ -14135,7 +14684,9 @@
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="1"/>
+      <c r="A283" s="1">
+        <v>2018</v>
+      </c>
       <c r="B283" s="2">
         <v>70</v>
       </c>
@@ -14168,7 +14719,9 @@
       </c>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="1"/>
+      <c r="A284" s="1">
+        <v>2018</v>
+      </c>
       <c r="B284" s="2">
         <v>71</v>
       </c>
@@ -14201,7 +14754,9 @@
       </c>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="1"/>
+      <c r="A285" s="1">
+        <v>2018</v>
+      </c>
       <c r="B285" s="2">
         <v>72</v>
       </c>
@@ -14234,7 +14789,9 @@
       </c>
     </row>
     <row r="286" spans="1:11">
-      <c r="A286" s="1"/>
+      <c r="A286" s="1">
+        <v>2018</v>
+      </c>
       <c r="B286" s="2">
         <v>73</v>
       </c>
@@ -14267,7 +14824,9 @@
       </c>
     </row>
     <row r="287" spans="1:11">
-      <c r="A287" s="1"/>
+      <c r="A287" s="1">
+        <v>2018</v>
+      </c>
       <c r="B287" s="2">
         <v>74</v>
       </c>
@@ -14300,7 +14859,9 @@
       </c>
     </row>
     <row r="288" spans="1:11">
-      <c r="A288" s="1"/>
+      <c r="A288" s="1">
+        <v>2018</v>
+      </c>
       <c r="B288" s="2">
         <v>75</v>
       </c>
@@ -14333,7 +14894,9 @@
       </c>
     </row>
     <row r="289" spans="1:11">
-      <c r="A289" s="1"/>
+      <c r="A289" s="1">
+        <v>2018</v>
+      </c>
       <c r="B289" s="2">
         <v>76</v>
       </c>
@@ -14366,7 +14929,9 @@
       </c>
     </row>
     <row r="290" spans="1:11">
-      <c r="A290" s="1"/>
+      <c r="A290" s="1">
+        <v>2018</v>
+      </c>
       <c r="B290" s="2">
         <v>77</v>
       </c>
@@ -14399,7 +14964,9 @@
       </c>
     </row>
     <row r="291" spans="1:11">
-      <c r="A291" s="1"/>
+      <c r="A291" s="1">
+        <v>2018</v>
+      </c>
       <c r="B291" s="2">
         <v>78</v>
       </c>
@@ -14432,7 +14999,9 @@
       </c>
     </row>
     <row r="292" spans="1:11">
-      <c r="A292" s="1"/>
+      <c r="A292" s="1">
+        <v>2018</v>
+      </c>
       <c r="B292" s="2">
         <v>79</v>
       </c>
@@ -14500,7 +15069,9 @@
       </c>
     </row>
     <row r="294" spans="1:11">
-      <c r="A294" s="1"/>
+      <c r="A294" s="1">
+        <v>2019</v>
+      </c>
       <c r="B294" s="2">
         <v>1</v>
       </c>
@@ -14533,7 +15104,9 @@
       </c>
     </row>
     <row r="295" spans="1:11">
-      <c r="A295" s="1"/>
+      <c r="A295" s="1">
+        <v>2019</v>
+      </c>
       <c r="B295" s="2">
         <v>2</v>
       </c>
@@ -14566,7 +15139,9 @@
       </c>
     </row>
     <row r="296" spans="1:11">
-      <c r="A296" s="1"/>
+      <c r="A296" s="1">
+        <v>2019</v>
+      </c>
       <c r="B296" s="2">
         <v>3</v>
       </c>
@@ -14599,7 +15174,9 @@
       </c>
     </row>
     <row r="297" spans="1:11">
-      <c r="A297" s="1"/>
+      <c r="A297" s="1">
+        <v>2019</v>
+      </c>
       <c r="B297" s="2">
         <v>4</v>
       </c>
@@ -14632,7 +15209,9 @@
       </c>
     </row>
     <row r="298" spans="1:11">
-      <c r="A298" s="1"/>
+      <c r="A298" s="1">
+        <v>2019</v>
+      </c>
       <c r="B298" s="2">
         <v>5</v>
       </c>
@@ -14665,7 +15244,9 @@
       </c>
     </row>
     <row r="299" spans="1:11">
-      <c r="A299" s="1"/>
+      <c r="A299" s="1">
+        <v>2019</v>
+      </c>
       <c r="B299" s="2">
         <v>6</v>
       </c>
@@ -14698,7 +15279,9 @@
       </c>
     </row>
     <row r="300" spans="1:11">
-      <c r="A300" s="1"/>
+      <c r="A300" s="1">
+        <v>2019</v>
+      </c>
       <c r="B300" s="2">
         <v>7</v>
       </c>
@@ -14731,7 +15314,9 @@
       </c>
     </row>
     <row r="301" spans="1:11">
-      <c r="A301" s="1"/>
+      <c r="A301" s="1">
+        <v>2019</v>
+      </c>
       <c r="B301" s="2">
         <v>8</v>
       </c>
@@ -14764,7 +15349,9 @@
       </c>
     </row>
     <row r="302" spans="1:11">
-      <c r="A302" s="1"/>
+      <c r="A302" s="1">
+        <v>2019</v>
+      </c>
       <c r="B302" s="2">
         <v>9</v>
       </c>
@@ -14797,7 +15384,9 @@
       </c>
     </row>
     <row r="303" spans="1:11">
-      <c r="A303" s="1"/>
+      <c r="A303" s="1">
+        <v>2019</v>
+      </c>
       <c r="B303" s="2">
         <v>10</v>
       </c>
@@ -14830,7 +15419,9 @@
       </c>
     </row>
     <row r="304" spans="1:11">
-      <c r="A304" s="1"/>
+      <c r="A304" s="1">
+        <v>2019</v>
+      </c>
       <c r="B304" s="2">
         <v>11</v>
       </c>
@@ -14863,7 +15454,9 @@
       </c>
     </row>
     <row r="305" spans="1:11">
-      <c r="A305" s="1"/>
+      <c r="A305" s="1">
+        <v>2019</v>
+      </c>
       <c r="B305" s="2">
         <v>12</v>
       </c>
@@ -14896,7 +15489,9 @@
       </c>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="1"/>
+      <c r="A306" s="1">
+        <v>2019</v>
+      </c>
       <c r="B306" s="2">
         <v>13</v>
       </c>
@@ -14929,7 +15524,9 @@
       </c>
     </row>
     <row r="307" spans="1:11">
-      <c r="A307" s="1"/>
+      <c r="A307" s="1">
+        <v>2019</v>
+      </c>
       <c r="B307" s="2">
         <v>14</v>
       </c>
@@ -14962,7 +15559,9 @@
       </c>
     </row>
     <row r="308" spans="1:11">
-      <c r="A308" s="1"/>
+      <c r="A308" s="1">
+        <v>2019</v>
+      </c>
       <c r="B308" s="2">
         <v>15</v>
       </c>
@@ -14995,7 +15594,9 @@
       </c>
     </row>
     <row r="309" spans="1:11">
-      <c r="A309" s="1"/>
+      <c r="A309" s="1">
+        <v>2019</v>
+      </c>
       <c r="B309" s="2">
         <v>16</v>
       </c>
@@ -15028,7 +15629,9 @@
       </c>
     </row>
     <row r="310" spans="1:11">
-      <c r="A310" s="1"/>
+      <c r="A310" s="1">
+        <v>2019</v>
+      </c>
       <c r="B310" s="2">
         <v>17</v>
       </c>
@@ -15061,7 +15664,9 @@
       </c>
     </row>
     <row r="311" spans="1:11">
-      <c r="A311" s="1"/>
+      <c r="A311" s="1">
+        <v>2019</v>
+      </c>
       <c r="B311" s="2">
         <v>18</v>
       </c>
@@ -15094,7 +15699,9 @@
       </c>
     </row>
     <row r="312" spans="1:11">
-      <c r="A312" s="1"/>
+      <c r="A312" s="1">
+        <v>2019</v>
+      </c>
       <c r="B312" s="2">
         <v>19</v>
       </c>
@@ -15127,7 +15734,9 @@
       </c>
     </row>
     <row r="313" spans="1:11">
-      <c r="A313" s="1"/>
+      <c r="A313" s="1">
+        <v>2019</v>
+      </c>
       <c r="B313" s="2">
         <v>20</v>
       </c>
@@ -15160,7 +15769,9 @@
       </c>
     </row>
     <row r="314" spans="1:11">
-      <c r="A314" s="1"/>
+      <c r="A314" s="1">
+        <v>2019</v>
+      </c>
       <c r="B314" s="2">
         <v>21</v>
       </c>
@@ -15193,7 +15804,9 @@
       </c>
     </row>
     <row r="315" spans="1:11">
-      <c r="A315" s="1"/>
+      <c r="A315" s="1">
+        <v>2019</v>
+      </c>
       <c r="B315" s="2">
         <v>22</v>
       </c>
@@ -15226,7 +15839,9 @@
       </c>
     </row>
     <row r="316" spans="1:11">
-      <c r="A316" s="1"/>
+      <c r="A316" s="1">
+        <v>2019</v>
+      </c>
       <c r="B316" s="2">
         <v>23</v>
       </c>
@@ -15259,7 +15874,9 @@
       </c>
     </row>
     <row r="317" spans="1:11">
-      <c r="A317" s="1"/>
+      <c r="A317" s="1">
+        <v>2019</v>
+      </c>
       <c r="B317" s="2">
         <v>24</v>
       </c>
@@ -15292,7 +15909,9 @@
       </c>
     </row>
     <row r="318" spans="1:11">
-      <c r="A318" s="1"/>
+      <c r="A318" s="1">
+        <v>2019</v>
+      </c>
       <c r="B318" s="2">
         <v>25</v>
       </c>
@@ -15325,7 +15944,9 @@
       </c>
     </row>
     <row r="319" spans="1:11">
-      <c r="A319" s="1"/>
+      <c r="A319" s="1">
+        <v>2019</v>
+      </c>
       <c r="B319" s="2">
         <v>26</v>
       </c>
@@ -15358,7 +15979,9 @@
       </c>
     </row>
     <row r="320" spans="1:11">
-      <c r="A320" s="1"/>
+      <c r="A320" s="1">
+        <v>2019</v>
+      </c>
       <c r="B320" s="2">
         <v>27</v>
       </c>
@@ -15391,7 +16014,9 @@
       </c>
     </row>
     <row r="321" spans="1:11">
-      <c r="A321" s="1"/>
+      <c r="A321" s="1">
+        <v>2019</v>
+      </c>
       <c r="B321" s="2">
         <v>28</v>
       </c>
@@ -15424,7 +16049,9 @@
       </c>
     </row>
     <row r="322" spans="1:11">
-      <c r="A322" s="1"/>
+      <c r="A322" s="1">
+        <v>2019</v>
+      </c>
       <c r="B322" s="2">
         <v>29</v>
       </c>
@@ -15457,7 +16084,9 @@
       </c>
     </row>
     <row r="323" spans="1:11">
-      <c r="A323" s="1"/>
+      <c r="A323" s="1">
+        <v>2019</v>
+      </c>
       <c r="B323" s="2">
         <v>30</v>
       </c>
@@ -15490,7 +16119,9 @@
       </c>
     </row>
     <row r="324" spans="1:11">
-      <c r="A324" s="1"/>
+      <c r="A324" s="1">
+        <v>2019</v>
+      </c>
       <c r="B324" s="2">
         <v>31</v>
       </c>
@@ -15523,7 +16154,9 @@
       </c>
     </row>
     <row r="325" spans="1:11">
-      <c r="A325" s="1"/>
+      <c r="A325" s="1">
+        <v>2019</v>
+      </c>
       <c r="B325" s="2">
         <v>32</v>
       </c>
@@ -15556,7 +16189,9 @@
       </c>
     </row>
     <row r="326" spans="1:11">
-      <c r="A326" s="1"/>
+      <c r="A326" s="1">
+        <v>2019</v>
+      </c>
       <c r="B326" s="2">
         <v>33</v>
       </c>
@@ -15589,7 +16224,9 @@
       </c>
     </row>
     <row r="327" spans="1:11">
-      <c r="A327" s="1"/>
+      <c r="A327" s="1">
+        <v>2019</v>
+      </c>
       <c r="B327" s="2">
         <v>34</v>
       </c>
@@ -15622,7 +16259,9 @@
       </c>
     </row>
     <row r="328" spans="1:11">
-      <c r="A328" s="1"/>
+      <c r="A328" s="1">
+        <v>2019</v>
+      </c>
       <c r="B328" s="2">
         <v>35</v>
       </c>
@@ -15655,7 +16294,9 @@
       </c>
     </row>
     <row r="329" spans="1:11">
-      <c r="A329" s="1"/>
+      <c r="A329" s="1">
+        <v>2019</v>
+      </c>
       <c r="B329" s="2">
         <v>36</v>
       </c>
@@ -15688,7 +16329,9 @@
       </c>
     </row>
     <row r="330" spans="1:11">
-      <c r="A330" s="1"/>
+      <c r="A330" s="1">
+        <v>2019</v>
+      </c>
       <c r="B330" s="2">
         <v>37</v>
       </c>
@@ -15721,7 +16364,9 @@
       </c>
     </row>
     <row r="331" spans="1:11">
-      <c r="A331" s="1"/>
+      <c r="A331" s="1">
+        <v>2019</v>
+      </c>
       <c r="B331" s="2">
         <v>38</v>
       </c>
@@ -15754,7 +16399,9 @@
       </c>
     </row>
     <row r="332" spans="1:11">
-      <c r="A332" s="1"/>
+      <c r="A332" s="1">
+        <v>2019</v>
+      </c>
       <c r="B332" s="2">
         <v>39</v>
       </c>
@@ -15787,7 +16434,9 @@
       </c>
     </row>
     <row r="333" spans="1:11">
-      <c r="A333" s="1"/>
+      <c r="A333" s="1">
+        <v>2019</v>
+      </c>
       <c r="B333" s="2">
         <v>40</v>
       </c>
@@ -15820,7 +16469,9 @@
       </c>
     </row>
     <row r="334" spans="1:11">
-      <c r="A334" s="1"/>
+      <c r="A334" s="1">
+        <v>2019</v>
+      </c>
       <c r="B334" s="2">
         <v>41</v>
       </c>
@@ -15853,7 +16504,9 @@
       </c>
     </row>
     <row r="335" spans="1:11">
-      <c r="A335" s="1"/>
+      <c r="A335" s="1">
+        <v>2019</v>
+      </c>
       <c r="B335" s="2">
         <v>42</v>
       </c>
@@ -15886,7 +16539,9 @@
       </c>
     </row>
     <row r="336" spans="1:11">
-      <c r="A336" s="1"/>
+      <c r="A336" s="1">
+        <v>2019</v>
+      </c>
       <c r="B336" s="2">
         <v>43</v>
       </c>
@@ -15919,7 +16574,9 @@
       </c>
     </row>
     <row r="337" spans="1:11">
-      <c r="A337" s="1"/>
+      <c r="A337" s="1">
+        <v>2019</v>
+      </c>
       <c r="B337" s="2">
         <v>44</v>
       </c>
@@ -15952,7 +16609,9 @@
       </c>
     </row>
     <row r="338" spans="1:11">
-      <c r="A338" s="1"/>
+      <c r="A338" s="1">
+        <v>2019</v>
+      </c>
       <c r="B338" s="2">
         <v>45</v>
       </c>
@@ -15985,7 +16644,9 @@
       </c>
     </row>
     <row r="339" spans="1:11">
-      <c r="A339" s="1"/>
+      <c r="A339" s="1">
+        <v>2019</v>
+      </c>
       <c r="B339" s="2">
         <v>46</v>
       </c>
@@ -16018,7 +16679,9 @@
       </c>
     </row>
     <row r="340" spans="1:11">
-      <c r="A340" s="1"/>
+      <c r="A340" s="1">
+        <v>2019</v>
+      </c>
       <c r="B340" s="2">
         <v>47</v>
       </c>
@@ -16051,7 +16714,9 @@
       </c>
     </row>
     <row r="341" spans="1:11">
-      <c r="A341" s="1"/>
+      <c r="A341" s="1">
+        <v>2019</v>
+      </c>
       <c r="B341" s="2">
         <v>48</v>
       </c>
@@ -16084,7 +16749,9 @@
       </c>
     </row>
     <row r="342" spans="1:11">
-      <c r="A342" s="1"/>
+      <c r="A342" s="1">
+        <v>2019</v>
+      </c>
       <c r="B342" s="2">
         <v>49</v>
       </c>
@@ -16117,7 +16784,9 @@
       </c>
     </row>
     <row r="343" spans="1:11">
-      <c r="A343" s="1"/>
+      <c r="A343" s="1">
+        <v>2019</v>
+      </c>
       <c r="B343" s="2">
         <v>50</v>
       </c>
@@ -16150,7 +16819,9 @@
       </c>
     </row>
     <row r="344" spans="1:11">
-      <c r="A344" s="1"/>
+      <c r="A344" s="1">
+        <v>2019</v>
+      </c>
       <c r="B344" s="2">
         <v>51</v>
       </c>
@@ -16183,7 +16854,9 @@
       </c>
     </row>
     <row r="345" spans="1:11">
-      <c r="A345" s="1"/>
+      <c r="A345" s="1">
+        <v>2019</v>
+      </c>
       <c r="B345" s="2">
         <v>52</v>
       </c>
@@ -16216,7 +16889,9 @@
       </c>
     </row>
     <row r="346" spans="1:11">
-      <c r="A346" s="1"/>
+      <c r="A346" s="1">
+        <v>2019</v>
+      </c>
       <c r="B346" s="2">
         <v>53</v>
       </c>
@@ -16249,7 +16924,9 @@
       </c>
     </row>
     <row r="347" spans="1:11">
-      <c r="A347" s="1"/>
+      <c r="A347" s="1">
+        <v>2019</v>
+      </c>
       <c r="B347" s="2">
         <v>54</v>
       </c>
@@ -16282,7 +16959,9 @@
       </c>
     </row>
     <row r="348" spans="1:11">
-      <c r="A348" s="1"/>
+      <c r="A348" s="1">
+        <v>2019</v>
+      </c>
       <c r="B348" s="2">
         <v>55</v>
       </c>
@@ -16315,7 +16994,9 @@
       </c>
     </row>
     <row r="349" spans="1:11">
-      <c r="A349" s="1"/>
+      <c r="A349" s="1">
+        <v>2019</v>
+      </c>
       <c r="B349" s="2">
         <v>56</v>
       </c>
@@ -16348,7 +17029,9 @@
       </c>
     </row>
     <row r="350" spans="1:11">
-      <c r="A350" s="1"/>
+      <c r="A350" s="1">
+        <v>2019</v>
+      </c>
       <c r="B350" s="2">
         <v>57</v>
       </c>
@@ -16381,7 +17064,9 @@
       </c>
     </row>
     <row r="351" spans="1:11">
-      <c r="A351" s="1"/>
+      <c r="A351" s="1">
+        <v>2019</v>
+      </c>
       <c r="B351" s="2">
         <v>58</v>
       </c>
@@ -16414,7 +17099,9 @@
       </c>
     </row>
     <row r="352" spans="1:11">
-      <c r="A352" s="1"/>
+      <c r="A352" s="1">
+        <v>2019</v>
+      </c>
       <c r="B352" s="2">
         <v>59</v>
       </c>
@@ -16447,7 +17134,9 @@
       </c>
     </row>
     <row r="353" spans="1:11">
-      <c r="A353" s="1"/>
+      <c r="A353" s="1">
+        <v>2019</v>
+      </c>
       <c r="B353" s="2">
         <v>60</v>
       </c>
@@ -16480,7 +17169,9 @@
       </c>
     </row>
     <row r="354" spans="1:11">
-      <c r="A354" s="1"/>
+      <c r="A354" s="1">
+        <v>2019</v>
+      </c>
       <c r="B354" s="2">
         <v>61</v>
       </c>
@@ -16513,7 +17204,9 @@
       </c>
     </row>
     <row r="355" spans="1:11">
-      <c r="A355" s="1"/>
+      <c r="A355" s="1">
+        <v>2019</v>
+      </c>
       <c r="B355" s="2">
         <v>62</v>
       </c>
@@ -16546,7 +17239,9 @@
       </c>
     </row>
     <row r="356" spans="1:11">
-      <c r="A356" s="1"/>
+      <c r="A356" s="1">
+        <v>2019</v>
+      </c>
       <c r="B356" s="2">
         <v>63</v>
       </c>
@@ -16579,7 +17274,9 @@
       </c>
     </row>
     <row r="357" spans="1:11">
-      <c r="A357" s="1"/>
+      <c r="A357" s="1">
+        <v>2019</v>
+      </c>
       <c r="B357" s="2">
         <v>64</v>
       </c>
@@ -16612,7 +17309,9 @@
       </c>
     </row>
     <row r="358" spans="1:11">
-      <c r="A358" s="1"/>
+      <c r="A358" s="1">
+        <v>2019</v>
+      </c>
       <c r="B358" s="2">
         <v>65</v>
       </c>
@@ -16645,7 +17344,9 @@
       </c>
     </row>
     <row r="359" spans="1:11">
-      <c r="A359" s="1"/>
+      <c r="A359" s="1">
+        <v>2019</v>
+      </c>
       <c r="B359" s="2">
         <v>66</v>
       </c>
@@ -16678,7 +17379,9 @@
       </c>
     </row>
     <row r="360" spans="1:11">
-      <c r="A360" s="1"/>
+      <c r="A360" s="1">
+        <v>2019</v>
+      </c>
       <c r="B360" s="2">
         <v>67</v>
       </c>
@@ -16711,7 +17414,9 @@
       </c>
     </row>
     <row r="361" spans="1:11">
-      <c r="A361" s="1"/>
+      <c r="A361" s="1">
+        <v>2019</v>
+      </c>
       <c r="B361" s="2">
         <v>68</v>
       </c>
@@ -16744,7 +17449,9 @@
       </c>
     </row>
     <row r="362" spans="1:11">
-      <c r="A362" s="1"/>
+      <c r="A362" s="1">
+        <v>2019</v>
+      </c>
       <c r="B362" s="2">
         <v>69</v>
       </c>
@@ -16777,7 +17484,9 @@
       </c>
     </row>
     <row r="363" spans="1:11">
-      <c r="A363" s="1"/>
+      <c r="A363" s="1">
+        <v>2019</v>
+      </c>
       <c r="B363" s="2">
         <v>70</v>
       </c>
@@ -16810,7 +17519,9 @@
       </c>
     </row>
     <row r="364" spans="1:11">
-      <c r="A364" s="1"/>
+      <c r="A364" s="1">
+        <v>2019</v>
+      </c>
       <c r="B364" s="2">
         <v>71</v>
       </c>
@@ -16843,7 +17554,9 @@
       </c>
     </row>
     <row r="365" spans="1:11">
-      <c r="A365" s="1"/>
+      <c r="A365" s="1">
+        <v>2019</v>
+      </c>
       <c r="B365" s="2">
         <v>72</v>
       </c>
@@ -16876,7 +17589,9 @@
       </c>
     </row>
     <row r="366" spans="1:11">
-      <c r="A366" s="1"/>
+      <c r="A366" s="1">
+        <v>2019</v>
+      </c>
       <c r="B366" s="2">
         <v>73</v>
       </c>
@@ -16909,7 +17624,9 @@
       </c>
     </row>
     <row r="367" spans="1:11">
-      <c r="A367" s="1"/>
+      <c r="A367" s="1">
+        <v>2019</v>
+      </c>
       <c r="B367" s="2">
         <v>74</v>
       </c>
@@ -16942,7 +17659,9 @@
       </c>
     </row>
     <row r="368" spans="1:11">
-      <c r="A368" s="1"/>
+      <c r="A368" s="1">
+        <v>2019</v>
+      </c>
       <c r="B368" s="2">
         <v>75</v>
       </c>
@@ -16975,7 +17694,9 @@
       </c>
     </row>
     <row r="369" spans="1:11">
-      <c r="A369" s="1"/>
+      <c r="A369" s="1">
+        <v>2019</v>
+      </c>
       <c r="B369" s="2">
         <v>76</v>
       </c>
@@ -17008,7 +17729,9 @@
       </c>
     </row>
     <row r="370" spans="1:11">
-      <c r="A370" s="1"/>
+      <c r="A370" s="1">
+        <v>2019</v>
+      </c>
       <c r="B370" s="2">
         <v>77</v>
       </c>
@@ -17041,7 +17764,9 @@
       </c>
     </row>
     <row r="371" spans="1:11">
-      <c r="A371" s="1"/>
+      <c r="A371" s="1">
+        <v>2019</v>
+      </c>
       <c r="B371" s="2">
         <v>78</v>
       </c>
@@ -17074,7 +17799,9 @@
       </c>
     </row>
     <row r="372" spans="1:11">
-      <c r="A372" s="1"/>
+      <c r="A372" s="1">
+        <v>2019</v>
+      </c>
       <c r="B372" s="2">
         <v>79</v>
       </c>
@@ -17107,7 +17834,9 @@
       </c>
     </row>
     <row r="373" spans="1:11">
-      <c r="A373" s="1"/>
+      <c r="A373" s="1">
+        <v>2019</v>
+      </c>
       <c r="B373" s="2">
         <v>80</v>
       </c>
@@ -17140,7 +17869,9 @@
       </c>
     </row>
     <row r="374" spans="1:11">
-      <c r="A374" s="1"/>
+      <c r="A374" s="1">
+        <v>2019</v>
+      </c>
       <c r="B374" s="2">
         <v>81</v>
       </c>
@@ -17173,7 +17904,9 @@
       </c>
     </row>
     <row r="375" spans="1:11">
-      <c r="A375" s="1"/>
+      <c r="A375" s="1">
+        <v>2019</v>
+      </c>
       <c r="B375" s="2">
         <v>82</v>
       </c>
@@ -17206,7 +17939,9 @@
       </c>
     </row>
     <row r="376" spans="1:11">
-      <c r="A376" s="1"/>
+      <c r="A376" s="1">
+        <v>2019</v>
+      </c>
       <c r="B376" s="2">
         <v>83</v>
       </c>
@@ -17239,7 +17974,9 @@
       </c>
     </row>
     <row r="377" spans="1:11">
-      <c r="A377" s="1"/>
+      <c r="A377" s="1">
+        <v>2019</v>
+      </c>
       <c r="B377" s="2">
         <v>84</v>
       </c>
@@ -17272,7 +18009,9 @@
       </c>
     </row>
     <row r="378" spans="1:11">
-      <c r="A378" s="1"/>
+      <c r="A378" s="1">
+        <v>2019</v>
+      </c>
       <c r="B378" s="2">
         <v>85</v>
       </c>
@@ -17305,7 +18044,9 @@
       </c>
     </row>
     <row r="379" spans="1:11">
-      <c r="A379" s="1"/>
+      <c r="A379" s="1">
+        <v>2019</v>
+      </c>
       <c r="B379" s="2">
         <v>86</v>
       </c>
@@ -17338,7 +18079,9 @@
       </c>
     </row>
     <row r="380" spans="1:11">
-      <c r="A380" s="1"/>
+      <c r="A380" s="1">
+        <v>2019</v>
+      </c>
       <c r="B380" s="2">
         <v>87</v>
       </c>
@@ -17371,7 +18114,9 @@
       </c>
     </row>
     <row r="381" spans="1:11">
-      <c r="A381" s="1"/>
+      <c r="A381" s="1">
+        <v>2019</v>
+      </c>
       <c r="B381" s="2">
         <v>88</v>
       </c>
@@ -17404,7 +18149,9 @@
       </c>
     </row>
     <row r="382" spans="1:11">
-      <c r="A382" s="1"/>
+      <c r="A382" s="1">
+        <v>2019</v>
+      </c>
       <c r="B382" s="2">
         <v>89</v>
       </c>
@@ -17437,7 +18184,9 @@
       </c>
     </row>
     <row r="383" spans="1:11">
-      <c r="A383" s="1"/>
+      <c r="A383" s="1">
+        <v>2019</v>
+      </c>
       <c r="B383" s="2">
         <v>90</v>
       </c>
@@ -17470,7 +18219,9 @@
       </c>
     </row>
     <row r="384" spans="1:11">
-      <c r="A384" s="1"/>
+      <c r="A384" s="1">
+        <v>2019</v>
+      </c>
       <c r="B384" s="2">
         <v>91</v>
       </c>
@@ -17503,7 +18254,9 @@
       </c>
     </row>
     <row r="385" spans="1:11">
-      <c r="A385" s="1"/>
+      <c r="A385" s="1">
+        <v>2019</v>
+      </c>
       <c r="B385" s="2">
         <v>92</v>
       </c>
@@ -17536,7 +18289,9 @@
       </c>
     </row>
     <row r="386" spans="1:11">
-      <c r="A386" s="1"/>
+      <c r="A386" s="1">
+        <v>2019</v>
+      </c>
       <c r="B386" s="2">
         <v>93</v>
       </c>
@@ -17569,7 +18324,9 @@
       </c>
     </row>
     <row r="387" spans="1:11">
-      <c r="A387" s="1"/>
+      <c r="A387" s="1">
+        <v>2019</v>
+      </c>
       <c r="B387" s="2">
         <v>94</v>
       </c>
@@ -17602,7 +18359,9 @@
       </c>
     </row>
     <row r="388" spans="1:11">
-      <c r="A388" s="1"/>
+      <c r="A388" s="1">
+        <v>2019</v>
+      </c>
       <c r="B388" s="2">
         <v>95</v>
       </c>
@@ -17635,7 +18394,9 @@
       </c>
     </row>
     <row r="389" spans="1:11">
-      <c r="A389" s="1"/>
+      <c r="A389" s="1">
+        <v>2019</v>
+      </c>
       <c r="B389" s="2">
         <v>96</v>
       </c>
@@ -17668,7 +18429,9 @@
       </c>
     </row>
     <row r="390" spans="1:11">
-      <c r="A390" s="1"/>
+      <c r="A390" s="1">
+        <v>2019</v>
+      </c>
       <c r="B390" s="2">
         <v>97</v>
       </c>
@@ -17701,7 +18464,9 @@
       </c>
     </row>
     <row r="391" spans="1:11">
-      <c r="A391" s="1"/>
+      <c r="A391" s="1">
+        <v>2019</v>
+      </c>
       <c r="B391" s="2">
         <v>98</v>
       </c>
@@ -17734,7 +18499,9 @@
       </c>
     </row>
     <row r="392" spans="1:11">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1">
+        <v>2019</v>
+      </c>
       <c r="B392" s="2">
         <v>99</v>
       </c>
@@ -17767,7 +18534,9 @@
       </c>
     </row>
     <row r="393" spans="1:11">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>2019</v>
+      </c>
       <c r="B393" s="2">
         <v>100</v>
       </c>
@@ -17800,7 +18569,9 @@
       </c>
     </row>
     <row r="394" spans="1:11">
-      <c r="A394" s="1"/>
+      <c r="A394" s="1">
+        <v>2019</v>
+      </c>
       <c r="B394" s="2">
         <v>101</v>
       </c>
@@ -17833,7 +18604,9 @@
       </c>
     </row>
     <row r="395" spans="1:11">
-      <c r="A395" s="1"/>
+      <c r="A395" s="1">
+        <v>2019</v>
+      </c>
       <c r="B395" s="2">
         <v>102</v>
       </c>
@@ -17866,7 +18639,9 @@
       </c>
     </row>
     <row r="396" spans="1:11">
-      <c r="A396" s="1"/>
+      <c r="A396" s="1">
+        <v>2019</v>
+      </c>
       <c r="B396" s="2">
         <v>103</v>
       </c>
@@ -17899,7 +18674,9 @@
       </c>
     </row>
     <row r="397" spans="1:11">
-      <c r="A397" s="1"/>
+      <c r="A397" s="1">
+        <v>2019</v>
+      </c>
       <c r="B397" s="2">
         <v>104</v>
       </c>
@@ -17932,7 +18709,9 @@
       </c>
     </row>
     <row r="398" spans="1:11">
-      <c r="A398" s="1"/>
+      <c r="A398" s="1">
+        <v>2019</v>
+      </c>
       <c r="B398" s="2">
         <v>105</v>
       </c>
@@ -17965,7 +18744,9 @@
       </c>
     </row>
     <row r="399" spans="1:11">
-      <c r="A399" s="1"/>
+      <c r="A399" s="1">
+        <v>2019</v>
+      </c>
       <c r="B399" s="2">
         <v>106</v>
       </c>
@@ -17998,7 +18779,9 @@
       </c>
     </row>
     <row r="400" spans="1:11">
-      <c r="A400" s="1"/>
+      <c r="A400" s="1">
+        <v>2019</v>
+      </c>
       <c r="B400" s="2">
         <v>107</v>
       </c>
@@ -18031,7 +18814,9 @@
       </c>
     </row>
     <row r="401" spans="1:11">
-      <c r="A401" s="1"/>
+      <c r="A401" s="1">
+        <v>2019</v>
+      </c>
       <c r="B401" s="2">
         <v>108</v>
       </c>
@@ -18064,7 +18849,9 @@
       </c>
     </row>
     <row r="402" spans="1:11">
-      <c r="A402" s="1"/>
+      <c r="A402" s="1">
+        <v>2019</v>
+      </c>
       <c r="B402" s="2">
         <v>109</v>
       </c>
@@ -18097,7 +18884,9 @@
       </c>
     </row>
     <row r="403" spans="1:11">
-      <c r="A403" s="1"/>
+      <c r="A403" s="1">
+        <v>2019</v>
+      </c>
       <c r="B403" s="2">
         <v>110</v>
       </c>
@@ -18130,7 +18919,9 @@
       </c>
     </row>
     <row r="404" spans="1:11">
-      <c r="A404" s="1"/>
+      <c r="A404" s="1">
+        <v>2019</v>
+      </c>
       <c r="B404" s="2">
         <v>111</v>
       </c>
@@ -18163,7 +18954,9 @@
       </c>
     </row>
     <row r="405" spans="1:11">
-      <c r="A405" s="1"/>
+      <c r="A405" s="1">
+        <v>2019</v>
+      </c>
       <c r="B405" s="2">
         <v>112</v>
       </c>
@@ -18196,7 +18989,9 @@
       </c>
     </row>
     <row r="406" spans="1:11">
-      <c r="A406" s="1"/>
+      <c r="A406" s="1">
+        <v>2019</v>
+      </c>
       <c r="B406" s="2">
         <v>113</v>
       </c>
@@ -18229,7 +19024,9 @@
       </c>
     </row>
     <row r="407" spans="1:11">
-      <c r="A407" s="1"/>
+      <c r="A407" s="1">
+        <v>2019</v>
+      </c>
       <c r="B407" s="2">
         <v>114</v>
       </c>
@@ -18262,7 +19059,9 @@
       </c>
     </row>
     <row r="408" spans="1:11">
-      <c r="A408" s="1"/>
+      <c r="A408" s="1">
+        <v>2019</v>
+      </c>
       <c r="B408" s="2">
         <v>115</v>
       </c>
@@ -18295,7 +19094,9 @@
       </c>
     </row>
     <row r="409" spans="1:11">
-      <c r="A409" s="1"/>
+      <c r="A409" s="1">
+        <v>2019</v>
+      </c>
       <c r="B409" s="2">
         <v>116</v>
       </c>
@@ -18328,7 +19129,9 @@
       </c>
     </row>
     <row r="410" spans="1:11">
-      <c r="A410" s="1"/>
+      <c r="A410" s="1">
+        <v>2019</v>
+      </c>
       <c r="B410" s="2">
         <v>117</v>
       </c>
@@ -18361,7 +19164,9 @@
       </c>
     </row>
     <row r="411" spans="1:11">
-      <c r="A411" s="1"/>
+      <c r="A411" s="1">
+        <v>2019</v>
+      </c>
       <c r="B411" s="2">
         <v>118</v>
       </c>
@@ -18429,7 +19234,9 @@
       </c>
     </row>
     <row r="413" spans="1:11">
-      <c r="A413" s="1"/>
+      <c r="A413" s="1">
+        <v>2020</v>
+      </c>
       <c r="B413" s="2">
         <v>1</v>
       </c>
@@ -18462,7 +19269,9 @@
       </c>
     </row>
     <row r="414" spans="1:11">
-      <c r="A414" s="1"/>
+      <c r="A414" s="1">
+        <v>2020</v>
+      </c>
       <c r="B414" s="2">
         <v>2</v>
       </c>
@@ -18495,7 +19304,9 @@
       </c>
     </row>
     <row r="415" spans="1:11">
-      <c r="A415" s="1"/>
+      <c r="A415" s="1">
+        <v>2020</v>
+      </c>
       <c r="B415" s="2">
         <v>3</v>
       </c>
@@ -18528,7 +19339,9 @@
       </c>
     </row>
     <row r="416" spans="1:11">
-      <c r="A416" s="1"/>
+      <c r="A416" s="1">
+        <v>2020</v>
+      </c>
       <c r="B416" s="2">
         <v>4</v>
       </c>
@@ -18561,7 +19374,9 @@
       </c>
     </row>
     <row r="417" spans="1:11">
-      <c r="A417" s="1"/>
+      <c r="A417" s="1">
+        <v>2020</v>
+      </c>
       <c r="B417" s="2">
         <v>5</v>
       </c>
@@ -18594,7 +19409,9 @@
       </c>
     </row>
     <row r="418" spans="1:11">
-      <c r="A418" s="1"/>
+      <c r="A418" s="1">
+        <v>2020</v>
+      </c>
       <c r="B418" s="2">
         <v>6</v>
       </c>
@@ -18627,7 +19444,9 @@
       </c>
     </row>
     <row r="419" spans="1:11">
-      <c r="A419" s="1"/>
+      <c r="A419" s="1">
+        <v>2020</v>
+      </c>
       <c r="B419" s="2">
         <v>7</v>
       </c>
@@ -18660,7 +19479,9 @@
       </c>
     </row>
     <row r="420" spans="1:11">
-      <c r="A420" s="1"/>
+      <c r="A420" s="1">
+        <v>2020</v>
+      </c>
       <c r="B420" s="2">
         <v>8</v>
       </c>
@@ -18693,7 +19514,9 @@
       </c>
     </row>
     <row r="421" spans="1:11">
-      <c r="A421" s="1"/>
+      <c r="A421" s="1">
+        <v>2020</v>
+      </c>
       <c r="B421" s="2">
         <v>9</v>
       </c>
@@ -18726,7 +19549,9 @@
       </c>
     </row>
     <row r="422" spans="1:11">
-      <c r="A422" s="1"/>
+      <c r="A422" s="1">
+        <v>2020</v>
+      </c>
       <c r="B422" s="2">
         <v>10</v>
       </c>
@@ -18759,7 +19584,9 @@
       </c>
     </row>
     <row r="423" spans="1:11">
-      <c r="A423" s="1"/>
+      <c r="A423" s="1">
+        <v>2020</v>
+      </c>
       <c r="B423" s="2">
         <v>11</v>
       </c>
@@ -18792,7 +19619,9 @@
       </c>
     </row>
     <row r="424" spans="1:11">
-      <c r="A424" s="1"/>
+      <c r="A424" s="1">
+        <v>2020</v>
+      </c>
       <c r="B424" s="2">
         <v>12</v>
       </c>
@@ -18825,7 +19654,9 @@
       </c>
     </row>
     <row r="425" spans="1:11">
-      <c r="A425" s="1"/>
+      <c r="A425" s="1">
+        <v>2020</v>
+      </c>
       <c r="B425" s="2">
         <v>13</v>
       </c>
@@ -18858,7 +19689,9 @@
       </c>
     </row>
     <row r="426" spans="1:11">
-      <c r="A426" s="1"/>
+      <c r="A426" s="1">
+        <v>2020</v>
+      </c>
       <c r="B426" s="2">
         <v>14</v>
       </c>
@@ -18891,7 +19724,9 @@
       </c>
     </row>
     <row r="427" spans="1:11">
-      <c r="A427" s="1"/>
+      <c r="A427" s="1">
+        <v>2020</v>
+      </c>
       <c r="B427" s="2">
         <v>15</v>
       </c>
@@ -18924,7 +19759,9 @@
       </c>
     </row>
     <row r="428" spans="1:11">
-      <c r="A428" s="1"/>
+      <c r="A428" s="1">
+        <v>2020</v>
+      </c>
       <c r="B428" s="2">
         <v>16</v>
       </c>
@@ -18957,7 +19794,9 @@
       </c>
     </row>
     <row r="429" spans="1:11">
-      <c r="A429" s="1"/>
+      <c r="A429" s="1">
+        <v>2020</v>
+      </c>
       <c r="B429" s="2">
         <v>17</v>
       </c>
@@ -18990,7 +19829,9 @@
       </c>
     </row>
     <row r="430" spans="1:11">
-      <c r="A430" s="1"/>
+      <c r="A430" s="1">
+        <v>2020</v>
+      </c>
       <c r="B430" s="2">
         <v>18</v>
       </c>
@@ -19023,7 +19864,9 @@
       </c>
     </row>
     <row r="431" spans="1:11">
-      <c r="A431" s="1"/>
+      <c r="A431" s="1">
+        <v>2020</v>
+      </c>
       <c r="B431" s="2">
         <v>19</v>
       </c>
@@ -19056,7 +19899,9 @@
       </c>
     </row>
     <row r="432" spans="1:11">
-      <c r="A432" s="1"/>
+      <c r="A432" s="1">
+        <v>2020</v>
+      </c>
       <c r="B432" s="2">
         <v>20</v>
       </c>
@@ -19089,7 +19934,9 @@
       </c>
     </row>
     <row r="433" spans="1:11">
-      <c r="A433" s="1"/>
+      <c r="A433" s="1">
+        <v>2020</v>
+      </c>
       <c r="B433" s="2">
         <v>21</v>
       </c>
@@ -19122,7 +19969,9 @@
       </c>
     </row>
     <row r="434" spans="1:11">
-      <c r="A434" s="1"/>
+      <c r="A434" s="1">
+        <v>2020</v>
+      </c>
       <c r="B434" s="2">
         <v>22</v>
       </c>
@@ -19155,7 +20004,9 @@
       </c>
     </row>
     <row r="435" spans="1:11">
-      <c r="A435" s="1"/>
+      <c r="A435" s="1">
+        <v>2020</v>
+      </c>
       <c r="B435" s="2">
         <v>23</v>
       </c>
@@ -19188,7 +20039,9 @@
       </c>
     </row>
     <row r="436" spans="1:11">
-      <c r="A436" s="1"/>
+      <c r="A436" s="1">
+        <v>2020</v>
+      </c>
       <c r="B436" s="2">
         <v>24</v>
       </c>
@@ -19221,7 +20074,9 @@
       </c>
     </row>
     <row r="437" spans="1:11">
-      <c r="A437" s="1"/>
+      <c r="A437" s="1">
+        <v>2020</v>
+      </c>
       <c r="B437" s="2">
         <v>25</v>
       </c>
@@ -19254,7 +20109,9 @@
       </c>
     </row>
     <row r="438" spans="1:11">
-      <c r="A438" s="1"/>
+      <c r="A438" s="1">
+        <v>2020</v>
+      </c>
       <c r="B438" s="2">
         <v>26</v>
       </c>
@@ -19287,7 +20144,9 @@
       </c>
     </row>
     <row r="439" spans="1:11">
-      <c r="A439" s="1"/>
+      <c r="A439" s="1">
+        <v>2020</v>
+      </c>
       <c r="B439" s="2">
         <v>27</v>
       </c>
@@ -19320,7 +20179,9 @@
       </c>
     </row>
     <row r="440" spans="1:11">
-      <c r="A440" s="1"/>
+      <c r="A440" s="1">
+        <v>2020</v>
+      </c>
       <c r="B440" s="2">
         <v>28</v>
       </c>
@@ -19353,7 +20214,9 @@
       </c>
     </row>
     <row r="441" spans="1:11">
-      <c r="A441" s="1"/>
+      <c r="A441" s="1">
+        <v>2020</v>
+      </c>
       <c r="B441" s="2">
         <v>29</v>
       </c>
@@ -19386,7 +20249,9 @@
       </c>
     </row>
     <row r="442" spans="1:11">
-      <c r="A442" s="1"/>
+      <c r="A442" s="1">
+        <v>2020</v>
+      </c>
       <c r="B442" s="2">
         <v>30</v>
       </c>
@@ -19419,7 +20284,9 @@
       </c>
     </row>
     <row r="443" spans="1:11">
-      <c r="A443" s="1"/>
+      <c r="A443" s="1">
+        <v>2020</v>
+      </c>
       <c r="B443" s="2">
         <v>31</v>
       </c>
@@ -19452,7 +20319,9 @@
       </c>
     </row>
     <row r="444" spans="1:11">
-      <c r="A444" s="1"/>
+      <c r="A444" s="1">
+        <v>2020</v>
+      </c>
       <c r="B444" s="2">
         <v>32</v>
       </c>
@@ -19485,7 +20354,9 @@
       </c>
     </row>
     <row r="445" spans="1:11">
-      <c r="A445" s="1"/>
+      <c r="A445" s="1">
+        <v>2020</v>
+      </c>
       <c r="B445" s="2">
         <v>33</v>
       </c>
@@ -19518,7 +20389,9 @@
       </c>
     </row>
     <row r="446" spans="1:11">
-      <c r="A446" s="1"/>
+      <c r="A446" s="1">
+        <v>2020</v>
+      </c>
       <c r="B446" s="2">
         <v>34</v>
       </c>
@@ -19551,7 +20424,9 @@
       </c>
     </row>
     <row r="447" spans="1:11">
-      <c r="A447" s="1"/>
+      <c r="A447" s="1">
+        <v>2020</v>
+      </c>
       <c r="B447" s="2">
         <v>35</v>
       </c>
@@ -19584,7 +20459,9 @@
       </c>
     </row>
     <row r="448" spans="1:11">
-      <c r="A448" s="1"/>
+      <c r="A448" s="1">
+        <v>2020</v>
+      </c>
       <c r="B448" s="2">
         <v>36</v>
       </c>
@@ -19617,7 +20494,9 @@
       </c>
     </row>
     <row r="449" spans="1:11">
-      <c r="A449" s="1"/>
+      <c r="A449" s="1">
+        <v>2020</v>
+      </c>
       <c r="B449" s="2">
         <v>37</v>
       </c>
@@ -19650,7 +20529,9 @@
       </c>
     </row>
     <row r="450" spans="1:11">
-      <c r="A450" s="1"/>
+      <c r="A450" s="1">
+        <v>2020</v>
+      </c>
       <c r="B450" s="2">
         <v>38</v>
       </c>
@@ -19683,7 +20564,9 @@
       </c>
     </row>
     <row r="451" spans="1:11">
-      <c r="A451" s="1"/>
+      <c r="A451" s="1">
+        <v>2020</v>
+      </c>
       <c r="B451" s="2">
         <v>39</v>
       </c>
@@ -19716,7 +20599,9 @@
       </c>
     </row>
     <row r="452" spans="1:11">
-      <c r="A452" s="1"/>
+      <c r="A452" s="1">
+        <v>2020</v>
+      </c>
       <c r="B452" s="2">
         <v>40</v>
       </c>
@@ -19749,7 +20634,9 @@
       </c>
     </row>
     <row r="453" spans="1:11">
-      <c r="A453" s="1"/>
+      <c r="A453" s="1">
+        <v>2020</v>
+      </c>
       <c r="B453" s="2">
         <v>41</v>
       </c>
@@ -19782,7 +20669,9 @@
       </c>
     </row>
     <row r="454" spans="1:11">
-      <c r="A454" s="1"/>
+      <c r="A454" s="1">
+        <v>2020</v>
+      </c>
       <c r="B454" s="2">
         <v>42</v>
       </c>
@@ -19815,7 +20704,9 @@
       </c>
     </row>
     <row r="455" spans="1:11">
-      <c r="A455" s="1"/>
+      <c r="A455" s="1">
+        <v>2020</v>
+      </c>
       <c r="B455" s="2">
         <v>43</v>
       </c>
@@ -19848,7 +20739,9 @@
       </c>
     </row>
     <row r="456" spans="1:11">
-      <c r="A456" s="1"/>
+      <c r="A456" s="1">
+        <v>2020</v>
+      </c>
       <c r="B456" s="2">
         <v>44</v>
       </c>
@@ -19881,7 +20774,9 @@
       </c>
     </row>
     <row r="457" spans="1:11">
-      <c r="A457" s="1"/>
+      <c r="A457" s="1">
+        <v>2020</v>
+      </c>
       <c r="B457" s="2">
         <v>45</v>
       </c>
@@ -19914,7 +20809,9 @@
       </c>
     </row>
     <row r="458" spans="1:11">
-      <c r="A458" s="1"/>
+      <c r="A458" s="1">
+        <v>2020</v>
+      </c>
       <c r="B458" s="2">
         <v>46</v>
       </c>
@@ -19947,7 +20844,9 @@
       </c>
     </row>
     <row r="459" spans="1:11">
-      <c r="A459" s="1"/>
+      <c r="A459" s="1">
+        <v>2020</v>
+      </c>
       <c r="B459" s="2">
         <v>47</v>
       </c>
@@ -19980,7 +20879,9 @@
       </c>
     </row>
     <row r="460" spans="1:11">
-      <c r="A460" s="1"/>
+      <c r="A460" s="1">
+        <v>2020</v>
+      </c>
       <c r="B460" s="2">
         <v>48</v>
       </c>
@@ -20013,7 +20914,9 @@
       </c>
     </row>
     <row r="461" spans="1:11">
-      <c r="A461" s="1"/>
+      <c r="A461" s="1">
+        <v>2020</v>
+      </c>
       <c r="B461" s="2">
         <v>49</v>
       </c>
@@ -20046,7 +20949,9 @@
       </c>
     </row>
     <row r="462" spans="1:11">
-      <c r="A462" s="1"/>
+      <c r="A462" s="1">
+        <v>2020</v>
+      </c>
       <c r="B462" s="2">
         <v>50</v>
       </c>
@@ -20079,7 +20984,9 @@
       </c>
     </row>
     <row r="463" spans="1:11">
-      <c r="A463" s="1"/>
+      <c r="A463" s="1">
+        <v>2020</v>
+      </c>
       <c r="B463" s="2">
         <v>51</v>
       </c>
@@ -20112,7 +21019,9 @@
       </c>
     </row>
     <row r="464" spans="1:11">
-      <c r="A464" s="1"/>
+      <c r="A464" s="1">
+        <v>2020</v>
+      </c>
       <c r="B464" s="2">
         <v>52</v>
       </c>
@@ -20145,7 +21054,9 @@
       </c>
     </row>
     <row r="465" spans="1:11">
-      <c r="A465" s="1"/>
+      <c r="A465" s="1">
+        <v>2020</v>
+      </c>
       <c r="B465" s="2">
         <v>53</v>
       </c>
@@ -20178,7 +21089,9 @@
       </c>
     </row>
     <row r="466" spans="1:11">
-      <c r="A466" s="1"/>
+      <c r="A466" s="1">
+        <v>2020</v>
+      </c>
       <c r="B466" s="2">
         <v>54</v>
       </c>
@@ -20211,7 +21124,9 @@
       </c>
     </row>
     <row r="467" spans="1:11">
-      <c r="A467" s="1"/>
+      <c r="A467" s="1">
+        <v>2020</v>
+      </c>
       <c r="B467" s="2">
         <v>55</v>
       </c>
@@ -20244,7 +21159,9 @@
       </c>
     </row>
     <row r="468" spans="1:11">
-      <c r="A468" s="1"/>
+      <c r="A468" s="1">
+        <v>2020</v>
+      </c>
       <c r="B468" s="2">
         <v>56</v>
       </c>
@@ -20277,7 +21194,9 @@
       </c>
     </row>
     <row r="469" spans="1:11">
-      <c r="A469" s="1"/>
+      <c r="A469" s="1">
+        <v>2020</v>
+      </c>
       <c r="B469" s="2">
         <v>57</v>
       </c>
@@ -20310,7 +21229,9 @@
       </c>
     </row>
     <row r="470" spans="1:11">
-      <c r="A470" s="1"/>
+      <c r="A470" s="1">
+        <v>2020</v>
+      </c>
       <c r="B470" s="2">
         <v>58</v>
       </c>
@@ -20343,7 +21264,9 @@
       </c>
     </row>
     <row r="471" spans="1:11">
-      <c r="A471" s="1"/>
+      <c r="A471" s="1">
+        <v>2020</v>
+      </c>
       <c r="B471" s="2">
         <v>59</v>
       </c>
@@ -20376,7 +21299,9 @@
       </c>
     </row>
     <row r="472" spans="1:11">
-      <c r="A472" s="1"/>
+      <c r="A472" s="1">
+        <v>2020</v>
+      </c>
       <c r="B472" s="2">
         <v>60</v>
       </c>
@@ -20409,7 +21334,9 @@
       </c>
     </row>
     <row r="473" spans="1:11">
-      <c r="A473" s="1"/>
+      <c r="A473" s="1">
+        <v>2020</v>
+      </c>
       <c r="B473" s="2">
         <v>61</v>
       </c>
@@ -20442,7 +21369,9 @@
       </c>
     </row>
     <row r="474" spans="1:11">
-      <c r="A474" s="1"/>
+      <c r="A474" s="1">
+        <v>2020</v>
+      </c>
       <c r="B474" s="2">
         <v>62</v>
       </c>
@@ -20475,7 +21404,9 @@
       </c>
     </row>
     <row r="475" spans="1:11">
-      <c r="A475" s="1"/>
+      <c r="A475" s="1">
+        <v>2020</v>
+      </c>
       <c r="B475" s="2">
         <v>63</v>
       </c>
@@ -20508,7 +21439,9 @@
       </c>
     </row>
     <row r="476" spans="1:11">
-      <c r="A476" s="1"/>
+      <c r="A476" s="1">
+        <v>2020</v>
+      </c>
       <c r="B476" s="2">
         <v>64</v>
       </c>
@@ -20541,7 +21474,9 @@
       </c>
     </row>
     <row r="477" spans="1:11">
-      <c r="A477" s="1"/>
+      <c r="A477" s="1">
+        <v>2020</v>
+      </c>
       <c r="B477" s="2">
         <v>65</v>
       </c>
@@ -20574,7 +21509,9 @@
       </c>
     </row>
     <row r="478" spans="1:11">
-      <c r="A478" s="1"/>
+      <c r="A478" s="1">
+        <v>2020</v>
+      </c>
       <c r="B478" s="2">
         <v>66</v>
       </c>
@@ -20607,7 +21544,9 @@
       </c>
     </row>
     <row r="479" spans="1:11">
-      <c r="A479" s="1"/>
+      <c r="A479" s="1">
+        <v>2020</v>
+      </c>
       <c r="B479" s="2">
         <v>67</v>
       </c>
@@ -20640,7 +21579,9 @@
       </c>
     </row>
     <row r="480" spans="1:11">
-      <c r="A480" s="1"/>
+      <c r="A480" s="1">
+        <v>2020</v>
+      </c>
       <c r="B480" s="2">
         <v>68</v>
       </c>
@@ -20673,7 +21614,9 @@
       </c>
     </row>
     <row r="481" spans="1:11">
-      <c r="A481" s="1"/>
+      <c r="A481" s="1">
+        <v>2020</v>
+      </c>
       <c r="B481" s="2">
         <v>69</v>
       </c>
@@ -20706,7 +21649,9 @@
       </c>
     </row>
     <row r="482" spans="1:11">
-      <c r="A482" s="1"/>
+      <c r="A482" s="1">
+        <v>2020</v>
+      </c>
       <c r="B482" s="2">
         <v>70</v>
       </c>
@@ -20739,7 +21684,9 @@
       </c>
     </row>
     <row r="483" spans="1:11">
-      <c r="A483" s="1"/>
+      <c r="A483" s="1">
+        <v>2020</v>
+      </c>
       <c r="B483" s="2">
         <v>71</v>
       </c>
@@ -20772,7 +21719,9 @@
       </c>
     </row>
     <row r="484" spans="1:11">
-      <c r="A484" s="1"/>
+      <c r="A484" s="1">
+        <v>2020</v>
+      </c>
       <c r="B484" s="2">
         <v>72</v>
       </c>
@@ -20805,7 +21754,9 @@
       </c>
     </row>
     <row r="485" spans="1:11">
-      <c r="A485" s="1"/>
+      <c r="A485" s="1">
+        <v>2020</v>
+      </c>
       <c r="B485" s="2">
         <v>73</v>
       </c>
@@ -20838,7 +21789,9 @@
       </c>
     </row>
     <row r="486" spans="1:11">
-      <c r="A486" s="1"/>
+      <c r="A486" s="1">
+        <v>2020</v>
+      </c>
       <c r="B486" s="2">
         <v>74</v>
       </c>
@@ -20871,7 +21824,9 @@
       </c>
     </row>
     <row r="487" spans="1:11">
-      <c r="A487" s="1"/>
+      <c r="A487" s="1">
+        <v>2020</v>
+      </c>
       <c r="B487" s="2">
         <v>75</v>
       </c>
@@ -20904,7 +21859,9 @@
       </c>
     </row>
     <row r="488" spans="1:11">
-      <c r="A488" s="1"/>
+      <c r="A488" s="1">
+        <v>2020</v>
+      </c>
       <c r="B488" s="2">
         <v>76</v>
       </c>
@@ -20937,7 +21894,9 @@
       </c>
     </row>
     <row r="489" spans="1:11">
-      <c r="A489" s="1"/>
+      <c r="A489" s="1">
+        <v>2020</v>
+      </c>
       <c r="B489" s="2">
         <v>77</v>
       </c>
@@ -20970,7 +21929,9 @@
       </c>
     </row>
     <row r="490" spans="1:11">
-      <c r="A490" s="1"/>
+      <c r="A490" s="1">
+        <v>2020</v>
+      </c>
       <c r="B490" s="2">
         <v>78</v>
       </c>
@@ -21003,7 +21964,9 @@
       </c>
     </row>
     <row r="491" spans="1:11">
-      <c r="A491" s="1"/>
+      <c r="A491" s="1">
+        <v>2020</v>
+      </c>
       <c r="B491" s="2">
         <v>79</v>
       </c>
@@ -21036,7 +21999,9 @@
       </c>
     </row>
     <row r="492" spans="1:11">
-      <c r="A492" s="1"/>
+      <c r="A492" s="1">
+        <v>2020</v>
+      </c>
       <c r="B492" s="2">
         <v>80</v>
       </c>
@@ -21069,7 +22034,9 @@
       </c>
     </row>
     <row r="493" spans="1:11">
-      <c r="A493" s="1"/>
+      <c r="A493" s="1">
+        <v>2020</v>
+      </c>
       <c r="B493" s="2">
         <v>81</v>
       </c>
@@ -21102,7 +22069,9 @@
       </c>
     </row>
     <row r="494" spans="1:11">
-      <c r="A494" s="1"/>
+      <c r="A494" s="1">
+        <v>2020</v>
+      </c>
       <c r="B494" s="2">
         <v>82</v>
       </c>
@@ -21135,7 +22104,9 @@
       </c>
     </row>
     <row r="495" spans="1:11">
-      <c r="A495" s="1"/>
+      <c r="A495" s="1">
+        <v>2020</v>
+      </c>
       <c r="B495" s="2">
         <v>83</v>
       </c>
@@ -21168,7 +22139,9 @@
       </c>
     </row>
     <row r="496" spans="1:11">
-      <c r="A496" s="1"/>
+      <c r="A496" s="1">
+        <v>2020</v>
+      </c>
       <c r="B496" s="2">
         <v>84</v>
       </c>
@@ -21201,7 +22174,9 @@
       </c>
     </row>
     <row r="497" spans="1:11">
-      <c r="A497" s="1"/>
+      <c r="A497" s="1">
+        <v>2020</v>
+      </c>
       <c r="B497" s="2">
         <v>85</v>
       </c>
@@ -21234,7 +22209,9 @@
       </c>
     </row>
     <row r="498" spans="1:11">
-      <c r="A498" s="1"/>
+      <c r="A498" s="1">
+        <v>2020</v>
+      </c>
       <c r="B498" s="2">
         <v>86</v>
       </c>
@@ -21267,7 +22244,9 @@
       </c>
     </row>
     <row r="499" spans="1:11">
-      <c r="A499" s="1"/>
+      <c r="A499" s="1">
+        <v>2020</v>
+      </c>
       <c r="B499" s="2">
         <v>87</v>
       </c>
@@ -21300,7 +22279,9 @@
       </c>
     </row>
     <row r="500" spans="1:11">
-      <c r="A500" s="1"/>
+      <c r="A500" s="1">
+        <v>2020</v>
+      </c>
       <c r="B500" s="2">
         <v>88</v>
       </c>
@@ -21333,7 +22314,9 @@
       </c>
     </row>
     <row r="501" spans="1:11">
-      <c r="A501" s="1"/>
+      <c r="A501" s="1">
+        <v>2020</v>
+      </c>
       <c r="B501" s="2">
         <v>89</v>
       </c>
@@ -21366,7 +22349,9 @@
       </c>
     </row>
     <row r="502" spans="1:11">
-      <c r="A502" s="1"/>
+      <c r="A502" s="1">
+        <v>2020</v>
+      </c>
       <c r="B502" s="2">
         <v>90</v>
       </c>
@@ -21399,7 +22384,9 @@
       </c>
     </row>
     <row r="503" spans="1:11">
-      <c r="A503" s="1"/>
+      <c r="A503" s="1">
+        <v>2020</v>
+      </c>
       <c r="B503" s="2">
         <v>91</v>
       </c>
@@ -21432,7 +22419,9 @@
       </c>
     </row>
     <row r="504" spans="1:11">
-      <c r="A504" s="1"/>
+      <c r="A504" s="1">
+        <v>2020</v>
+      </c>
       <c r="B504" s="2">
         <v>92</v>
       </c>
@@ -21465,7 +22454,9 @@
       </c>
     </row>
     <row r="505" spans="1:11">
-      <c r="A505" s="1"/>
+      <c r="A505" s="1">
+        <v>2020</v>
+      </c>
       <c r="B505" s="2">
         <v>93</v>
       </c>
@@ -21498,7 +22489,9 @@
       </c>
     </row>
     <row r="506" spans="1:11">
-      <c r="A506" s="1"/>
+      <c r="A506" s="1">
+        <v>2020</v>
+      </c>
       <c r="B506" s="2">
         <v>94</v>
       </c>
@@ -21531,7 +22524,9 @@
       </c>
     </row>
     <row r="507" spans="1:11">
-      <c r="A507" s="1"/>
+      <c r="A507" s="1">
+        <v>2020</v>
+      </c>
       <c r="B507" s="2">
         <v>95</v>
       </c>
@@ -21564,7 +22559,9 @@
       </c>
     </row>
     <row r="508" spans="1:11">
-      <c r="A508" s="1"/>
+      <c r="A508" s="1">
+        <v>2020</v>
+      </c>
       <c r="B508" s="2">
         <v>96</v>
       </c>
@@ -21597,7 +22594,9 @@
       </c>
     </row>
     <row r="509" spans="1:11">
-      <c r="A509" s="1"/>
+      <c r="A509" s="1">
+        <v>2020</v>
+      </c>
       <c r="B509" s="2">
         <v>97</v>
       </c>
@@ -21630,7 +22629,9 @@
       </c>
     </row>
     <row r="510" spans="1:11">
-      <c r="A510" s="1"/>
+      <c r="A510" s="1">
+        <v>2020</v>
+      </c>
       <c r="B510" s="2">
         <v>98</v>
       </c>
@@ -21663,7 +22664,9 @@
       </c>
     </row>
     <row r="511" spans="1:11">
-      <c r="A511" s="1"/>
+      <c r="A511" s="1">
+        <v>2020</v>
+      </c>
       <c r="B511" s="2">
         <v>99</v>
       </c>
@@ -21696,7 +22699,9 @@
       </c>
     </row>
     <row r="512" spans="1:11">
-      <c r="A512" s="1"/>
+      <c r="A512" s="1">
+        <v>2020</v>
+      </c>
       <c r="B512" s="2">
         <v>100</v>
       </c>
@@ -21729,7 +22734,9 @@
       </c>
     </row>
     <row r="513" spans="1:11">
-      <c r="A513" s="1"/>
+      <c r="A513" s="1">
+        <v>2020</v>
+      </c>
       <c r="B513" s="2">
         <v>101</v>
       </c>
@@ -21762,7 +22769,9 @@
       </c>
     </row>
     <row r="514" spans="1:11">
-      <c r="A514" s="1"/>
+      <c r="A514" s="1">
+        <v>2020</v>
+      </c>
       <c r="B514" s="2">
         <v>102</v>
       </c>
@@ -21795,7 +22804,9 @@
       </c>
     </row>
     <row r="515" spans="1:11">
-      <c r="A515" s="1"/>
+      <c r="A515" s="1">
+        <v>2020</v>
+      </c>
       <c r="B515" s="2">
         <v>103</v>
       </c>
@@ -21828,7 +22839,9 @@
       </c>
     </row>
     <row r="516" spans="1:11">
-      <c r="A516" s="1"/>
+      <c r="A516" s="1">
+        <v>2020</v>
+      </c>
       <c r="B516" s="2">
         <v>104</v>
       </c>
@@ -21861,7 +22874,9 @@
       </c>
     </row>
     <row r="517" spans="1:11">
-      <c r="A517" s="1"/>
+      <c r="A517" s="1">
+        <v>2020</v>
+      </c>
       <c r="B517" s="2">
         <v>105</v>
       </c>
@@ -21894,7 +22909,9 @@
       </c>
     </row>
     <row r="518" spans="1:11">
-      <c r="A518" s="1"/>
+      <c r="A518" s="1">
+        <v>2020</v>
+      </c>
       <c r="B518" s="2">
         <v>106</v>
       </c>
@@ -21927,7 +22944,9 @@
       </c>
     </row>
     <row r="519" spans="1:11">
-      <c r="A519" s="1"/>
+      <c r="A519" s="1">
+        <v>2020</v>
+      </c>
       <c r="B519" s="2">
         <v>107</v>
       </c>
@@ -21960,7 +22979,9 @@
       </c>
     </row>
     <row r="520" spans="1:11">
-      <c r="A520" s="1"/>
+      <c r="A520" s="1">
+        <v>2020</v>
+      </c>
       <c r="B520" s="2">
         <v>108</v>
       </c>
@@ -21993,7 +23014,9 @@
       </c>
     </row>
     <row r="521" spans="1:11">
-      <c r="A521" s="1"/>
+      <c r="A521" s="1">
+        <v>2020</v>
+      </c>
       <c r="B521" s="2">
         <v>109</v>
       </c>
@@ -22026,7 +23049,9 @@
       </c>
     </row>
     <row r="522" spans="1:11">
-      <c r="A522" s="1"/>
+      <c r="A522" s="1">
+        <v>2020</v>
+      </c>
       <c r="B522" s="2">
         <v>110</v>
       </c>
@@ -22059,7 +23084,9 @@
       </c>
     </row>
     <row r="523" spans="1:11">
-      <c r="A523" s="1"/>
+      <c r="A523" s="1">
+        <v>2020</v>
+      </c>
       <c r="B523" s="2">
         <v>111</v>
       </c>
@@ -22092,7 +23119,9 @@
       </c>
     </row>
     <row r="524" spans="1:11">
-      <c r="A524" s="1"/>
+      <c r="A524" s="1">
+        <v>2020</v>
+      </c>
       <c r="B524" s="2">
         <v>112</v>
       </c>
@@ -22125,7 +23154,9 @@
       </c>
     </row>
     <row r="525" spans="1:11">
-      <c r="A525" s="1"/>
+      <c r="A525" s="1">
+        <v>2020</v>
+      </c>
       <c r="B525" s="2">
         <v>113</v>
       </c>
@@ -22158,7 +23189,9 @@
       </c>
     </row>
     <row r="526" spans="1:11">
-      <c r="A526" s="1"/>
+      <c r="A526" s="1">
+        <v>2020</v>
+      </c>
       <c r="B526" s="2">
         <v>114</v>
       </c>
@@ -22191,7 +23224,9 @@
       </c>
     </row>
     <row r="527" spans="1:11">
-      <c r="A527" s="1"/>
+      <c r="A527" s="1">
+        <v>2020</v>
+      </c>
       <c r="B527" s="2">
         <v>115</v>
       </c>
@@ -22224,7 +23259,9 @@
       </c>
     </row>
     <row r="528" spans="1:11">
-      <c r="A528" s="1"/>
+      <c r="A528" s="1">
+        <v>2020</v>
+      </c>
       <c r="B528" s="2">
         <v>116</v>
       </c>
@@ -22257,14 +23294,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A33"/>
-    <mergeCell ref="A34:A104"/>
-    <mergeCell ref="A105:A212"/>
-    <mergeCell ref="A213:A292"/>
-    <mergeCell ref="A293:A411"/>
-    <mergeCell ref="A412:A528"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
